--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="515">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1048,6 +1048,12 @@
     <t>['24', '72']</t>
   </si>
   <si>
+    <t>['45', '70', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '35', '45+3', '54', '85']</t>
+  </si>
+  <si>
     <t>['4', '36', '75']</t>
   </si>
   <si>
@@ -1548,6 +1554,12 @@
   <si>
     <t>['32', '71']</t>
   </si>
+  <si>
+    <t>['27', '51', '65']</t>
+  </si>
+  <si>
+    <t>['19', '35', '40', '55']</t>
+  </si>
 </sst>
 </file>
 
@@ -1908,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP348"/>
+  <dimension ref="A1:BP354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2167,7 +2179,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -2245,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ2">
         <v>2.24</v>
@@ -2451,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ3">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2579,7 +2591,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -3072,7 +3084,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ6">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3275,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -3609,7 +3621,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3687,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9">
         <v>1.41</v>
@@ -4102,7 +4114,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ11">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4227,7 +4239,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q12">
         <v>2.6</v>
@@ -4433,7 +4445,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4639,7 +4651,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4845,7 +4857,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q15">
         <v>1.62</v>
@@ -4926,7 +4938,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ15">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5335,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5544,7 +5556,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5875,7 +5887,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -6287,7 +6299,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6493,7 +6505,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6574,7 +6586,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ23">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>2.09</v>
@@ -6699,7 +6711,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q24">
         <v>1.73</v>
@@ -6780,7 +6792,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ24">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6905,7 +6917,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q25">
         <v>1.62</v>
@@ -6983,10 +6995,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ25">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -7189,7 +7201,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -7317,7 +7329,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7523,7 +7535,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7601,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
         <v>1.65</v>
@@ -7729,7 +7741,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -7807,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ29">
         <v>2.24</v>
@@ -7935,7 +7947,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -8141,7 +8153,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -8219,7 +8231,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ31">
         <v>1.35</v>
@@ -8347,7 +8359,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8425,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ32">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>0.78</v>
@@ -8631,10 +8643,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ33">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8759,7 +8771,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q34">
         <v>1.91</v>
@@ -8840,7 +8852,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ34">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR34">
         <v>1.74</v>
@@ -8965,7 +8977,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -9043,7 +9055,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ35">
         <v>1.41</v>
@@ -9171,7 +9183,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -9249,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -9458,7 +9470,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>2.87</v>
@@ -9583,7 +9595,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9664,7 +9676,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR38">
         <v>1.14</v>
@@ -10073,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ40">
         <v>1.41</v>
@@ -10201,7 +10213,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10613,7 +10625,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q43">
         <v>5.5</v>
@@ -11025,7 +11037,7 @@
         <v>126</v>
       </c>
       <c r="P45" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11849,7 +11861,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q49">
         <v>5.5</v>
@@ -12342,7 +12354,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -12545,10 +12557,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ52">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -12751,10 +12763,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12879,7 +12891,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q54">
         <v>2.4</v>
@@ -12957,10 +12969,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -13163,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ55">
         <v>1.41</v>
@@ -13784,7 +13796,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ58">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>2.46</v>
@@ -13909,7 +13921,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13987,7 +13999,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ59">
         <v>1.41</v>
@@ -14115,7 +14127,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14193,10 +14205,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.08</v>
@@ -14527,7 +14539,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q62">
         <v>7.5</v>
@@ -14733,7 +14745,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14939,7 +14951,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15969,7 +15981,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -16175,7 +16187,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16381,7 +16393,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16459,7 +16471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
         <v>0.78</v>
@@ -16665,7 +16677,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ72">
         <v>1.41</v>
@@ -16793,7 +16805,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16871,7 +16883,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ73">
         <v>1.18</v>
@@ -17080,7 +17092,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ74">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR74">
         <v>1.73</v>
@@ -17205,7 +17217,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -17698,7 +17710,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ77">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR77">
         <v>1.47</v>
@@ -17823,7 +17835,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -18029,7 +18041,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -18110,7 +18122,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -18519,7 +18531,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ81">
         <v>2.24</v>
@@ -18728,7 +18740,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ82">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -19137,7 +19149,7 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ84">
         <v>0.9399999999999999</v>
@@ -19265,7 +19277,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -19549,7 +19561,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ86">
         <v>0.78</v>
@@ -19677,7 +19689,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19758,7 +19770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR87">
         <v>1.25</v>
@@ -19883,7 +19895,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -20089,7 +20101,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20167,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ89">
         <v>1.41</v>
@@ -20582,7 +20594,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ91">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR91">
         <v>2.35</v>
@@ -20707,7 +20719,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20913,7 +20925,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21403,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ95">
         <v>0.33</v>
@@ -21531,7 +21543,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q96">
         <v>4.75</v>
@@ -21612,7 +21624,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.03</v>
@@ -21737,7 +21749,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21818,7 +21830,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ97">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.32</v>
@@ -22230,7 +22242,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ99">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR99">
         <v>1.93</v>
@@ -22436,7 +22448,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ100">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR100">
         <v>2.09</v>
@@ -22561,7 +22573,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22767,7 +22779,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -23051,10 +23063,10 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ103">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
         <v>1.1</v>
@@ -23257,10 +23269,10 @@
         <v>0.25</v>
       </c>
       <c r="AP104">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ104">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -23591,7 +23603,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23669,7 +23681,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23797,7 +23809,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23875,7 +23887,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>1.35</v>
@@ -24493,7 +24505,7 @@
         <v>1.6</v>
       </c>
       <c r="AP110">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ110">
         <v>1.83</v>
@@ -24621,7 +24633,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24827,7 +24839,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -25033,7 +25045,7 @@
         <v>173</v>
       </c>
       <c r="P113" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q113">
         <v>1.57</v>
@@ -25111,7 +25123,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ113">
         <v>0.78</v>
@@ -25445,7 +25457,7 @@
         <v>175</v>
       </c>
       <c r="P115" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q115">
         <v>3.2</v>
@@ -25526,7 +25538,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ115">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR115">
         <v>1.31</v>
@@ -25732,7 +25744,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.26</v>
@@ -25857,7 +25869,7 @@
         <v>177</v>
       </c>
       <c r="P117" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q117">
         <v>2.5</v>
@@ -25938,7 +25950,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ117">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -26063,7 +26075,7 @@
         <v>178</v>
       </c>
       <c r="P118" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -26144,7 +26156,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR118">
         <v>1.73</v>
@@ -26681,7 +26693,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26965,7 +26977,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ122">
         <v>1.83</v>
@@ -27093,7 +27105,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -27171,10 +27183,10 @@
         <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ123">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.1</v>
@@ -27299,7 +27311,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -27583,7 +27595,7 @@
         <v>1.67</v>
       </c>
       <c r="AP125">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27917,7 +27929,7 @@
         <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27995,7 +28007,7 @@
         <v>1.17</v>
       </c>
       <c r="AP127">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ127">
         <v>1.35</v>
@@ -28201,7 +28213,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>2.17</v>
@@ -28329,7 +28341,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28535,7 +28547,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28741,7 +28753,7 @@
         <v>188</v>
       </c>
       <c r="P131" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28822,7 +28834,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ131">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR131">
         <v>1.37</v>
@@ -29025,10 +29037,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ132">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR132">
         <v>1.84</v>
@@ -29231,7 +29243,7 @@
         <v>0.57</v>
       </c>
       <c r="AP133">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ133">
         <v>0.5600000000000001</v>
@@ -29437,7 +29449,7 @@
         <v>0.17</v>
       </c>
       <c r="AP134">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -29646,7 +29658,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR135">
         <v>1.38</v>
@@ -30183,7 +30195,7 @@
         <v>194</v>
       </c>
       <c r="P138" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q138">
         <v>2.2</v>
@@ -30389,7 +30401,7 @@
         <v>195</v>
       </c>
       <c r="P139" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q139">
         <v>1.67</v>
@@ -30470,7 +30482,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ139">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR139">
         <v>2.15</v>
@@ -30595,7 +30607,7 @@
         <v>196</v>
       </c>
       <c r="P140" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30801,7 +30813,7 @@
         <v>197</v>
       </c>
       <c r="P141" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q141">
         <v>1.67</v>
@@ -30879,7 +30891,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ141">
         <v>1.41</v>
@@ -31213,7 +31225,7 @@
         <v>199</v>
       </c>
       <c r="P143" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -31291,7 +31303,7 @@
         <v>2.17</v>
       </c>
       <c r="AP143">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ143">
         <v>2.17</v>
@@ -31625,7 +31637,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31706,7 +31718,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR145">
         <v>1.32</v>
@@ -31912,7 +31924,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ146">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR146">
         <v>1.4</v>
@@ -32037,7 +32049,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q147">
         <v>8.5</v>
@@ -32115,7 +32127,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ147">
         <v>1.83</v>
@@ -32736,7 +32748,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ150">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32861,7 +32873,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q151">
         <v>2.3</v>
@@ -33067,7 +33079,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -33351,7 +33363,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ153">
         <v>0.78</v>
@@ -33560,7 +33572,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR154">
         <v>1.16</v>
@@ -33891,7 +33903,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33972,7 +33984,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ156">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>1.79</v>
@@ -34715,7 +34727,7 @@
         <v>212</v>
       </c>
       <c r="P160" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q160">
         <v>11</v>
@@ -34793,7 +34805,7 @@
         <v>1.63</v>
       </c>
       <c r="AP160">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ160">
         <v>2.24</v>
@@ -34921,7 +34933,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -35002,7 +35014,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ161">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>2.08</v>
@@ -35127,7 +35139,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q162">
         <v>4.5</v>
@@ -35414,7 +35426,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ163">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR163">
         <v>1.72</v>
@@ -35539,7 +35551,7 @@
         <v>215</v>
       </c>
       <c r="P164" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35617,7 +35629,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35951,7 +35963,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -36029,10 +36041,10 @@
         <v>1.86</v>
       </c>
       <c r="AP166">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ166">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -36238,7 +36250,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ167">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR167">
         <v>1.36</v>
@@ -36363,7 +36375,7 @@
         <v>218</v>
       </c>
       <c r="P168" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36441,7 +36453,7 @@
         <v>1.38</v>
       </c>
       <c r="AP168">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ168">
         <v>1.65</v>
@@ -36647,7 +36659,7 @@
         <v>1.43</v>
       </c>
       <c r="AP169">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -37187,7 +37199,7 @@
         <v>182</v>
       </c>
       <c r="P172" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q172">
         <v>1.62</v>
@@ -37680,7 +37692,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ174">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
         <v>2.16</v>
@@ -37805,7 +37817,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q175">
         <v>2.25</v>
@@ -38089,10 +38101,10 @@
         <v>0.63</v>
       </c>
       <c r="AP176">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.26</v>
@@ -38217,7 +38229,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -38298,7 +38310,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ177">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
         <v>1.33</v>
@@ -38423,7 +38435,7 @@
         <v>223</v>
       </c>
       <c r="P178" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38629,7 +38641,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38835,7 +38847,7 @@
         <v>225</v>
       </c>
       <c r="P180" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q180">
         <v>1.95</v>
@@ -38916,7 +38928,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ180">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR180">
         <v>1.84</v>
@@ -39122,7 +39134,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ181">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR181">
         <v>1.44</v>
@@ -39247,7 +39259,7 @@
         <v>227</v>
       </c>
       <c r="P182" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39325,7 +39337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP182">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ182">
         <v>0.5600000000000001</v>
@@ -39453,7 +39465,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -39531,7 +39543,7 @@
         <v>1.78</v>
       </c>
       <c r="AP183">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ183">
         <v>1.83</v>
@@ -39659,7 +39671,7 @@
         <v>228</v>
       </c>
       <c r="P184" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39865,7 +39877,7 @@
         <v>229</v>
       </c>
       <c r="P185" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39943,10 +39955,10 @@
         <v>0.78</v>
       </c>
       <c r="AP185">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ185">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR185">
         <v>1.48</v>
@@ -40277,7 +40289,7 @@
         <v>223</v>
       </c>
       <c r="P187" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40483,7 +40495,7 @@
         <v>231</v>
       </c>
       <c r="P188" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q188">
         <v>2.88</v>
@@ -40689,7 +40701,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40767,7 +40779,7 @@
         <v>1.44</v>
       </c>
       <c r="AP189">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ189">
         <v>1.35</v>
@@ -40895,7 +40907,7 @@
         <v>232</v>
       </c>
       <c r="P190" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -40973,7 +40985,7 @@
         <v>1.11</v>
       </c>
       <c r="AP190">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ190">
         <v>1.18</v>
@@ -41182,7 +41194,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -41307,7 +41319,7 @@
         <v>234</v>
       </c>
       <c r="P192" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q192">
         <v>1.83</v>
@@ -41513,7 +41525,7 @@
         <v>235</v>
       </c>
       <c r="P193" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q193">
         <v>3.1</v>
@@ -41797,7 +41809,7 @@
         <v>0.22</v>
       </c>
       <c r="AP194">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ194">
         <v>0.33</v>
@@ -41925,7 +41937,7 @@
         <v>237</v>
       </c>
       <c r="P195" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -42212,7 +42224,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ196">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR196">
         <v>2.09</v>
@@ -42543,7 +42555,7 @@
         <v>240</v>
       </c>
       <c r="P198" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q198">
         <v>1.91</v>
@@ -42624,7 +42636,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ198">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>2.18</v>
@@ -43033,7 +43045,7 @@
         <v>0.78</v>
       </c>
       <c r="AP200">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ200">
         <v>0.5600000000000001</v>
@@ -43242,7 +43254,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ201">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR201">
         <v>1.51</v>
@@ -43367,7 +43379,7 @@
         <v>242</v>
       </c>
       <c r="P202" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43779,7 +43791,7 @@
         <v>243</v>
       </c>
       <c r="P204" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -44063,7 +44075,7 @@
         <v>1.2</v>
       </c>
       <c r="AP205">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -44191,7 +44203,7 @@
         <v>245</v>
       </c>
       <c r="P206" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44269,10 +44281,10 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ206">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR206">
         <v>1.49</v>
@@ -44397,7 +44409,7 @@
         <v>246</v>
       </c>
       <c r="P207" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44475,7 +44487,7 @@
         <v>1.6</v>
       </c>
       <c r="AP207">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ207">
         <v>1.35</v>
@@ -44603,7 +44615,7 @@
         <v>90</v>
       </c>
       <c r="P208" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44890,7 +44902,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ209">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR209">
         <v>2</v>
@@ -45015,7 +45027,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q210">
         <v>6.5</v>
@@ -45299,7 +45311,7 @@
         <v>1.2</v>
       </c>
       <c r="AP211">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -45508,7 +45520,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ212">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR212">
         <v>1.48</v>
@@ -45633,7 +45645,7 @@
         <v>249</v>
       </c>
       <c r="P213" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45839,7 +45851,7 @@
         <v>250</v>
       </c>
       <c r="P214" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45920,7 +45932,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ214">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR214">
         <v>1.63</v>
@@ -46045,7 +46057,7 @@
         <v>251</v>
       </c>
       <c r="P215" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q215">
         <v>1.4</v>
@@ -46123,7 +46135,7 @@
         <v>0.8</v>
       </c>
       <c r="AP215">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ215">
         <v>0.78</v>
@@ -46251,7 +46263,7 @@
         <v>252</v>
       </c>
       <c r="P216" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46663,7 +46675,7 @@
         <v>99</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -46744,7 +46756,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR218">
         <v>1.32</v>
@@ -46869,7 +46881,7 @@
         <v>254</v>
       </c>
       <c r="P219" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -47075,7 +47087,7 @@
         <v>255</v>
       </c>
       <c r="P220" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47487,7 +47499,7 @@
         <v>257</v>
       </c>
       <c r="P222" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q222">
         <v>3.5</v>
@@ -47565,10 +47577,10 @@
         <v>0.55</v>
       </c>
       <c r="AP222">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ222">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR222">
         <v>1.31</v>
@@ -47693,7 +47705,7 @@
         <v>258</v>
       </c>
       <c r="P223" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q223">
         <v>1.8</v>
@@ -47899,7 +47911,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -47977,7 +47989,7 @@
         <v>1.36</v>
       </c>
       <c r="AP224">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ224">
         <v>1.65</v>
@@ -48186,7 +48198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -48311,7 +48323,7 @@
         <v>260</v>
       </c>
       <c r="P226" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q226">
         <v>2.2</v>
@@ -48392,7 +48404,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ226">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR226">
         <v>1.53</v>
@@ -48723,7 +48735,7 @@
         <v>262</v>
       </c>
       <c r="P228" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48801,7 +48813,7 @@
         <v>2</v>
       </c>
       <c r="AP228">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ228">
         <v>1.83</v>
@@ -48929,7 +48941,7 @@
         <v>263</v>
       </c>
       <c r="P229" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49007,7 +49019,7 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ229">
         <v>2.24</v>
@@ -49213,10 +49225,10 @@
         <v>1.55</v>
       </c>
       <c r="AP230">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ230">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR230">
         <v>1.66</v>
@@ -49341,7 +49353,7 @@
         <v>265</v>
       </c>
       <c r="P231" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q231">
         <v>2.3</v>
@@ -49419,7 +49431,7 @@
         <v>0.18</v>
       </c>
       <c r="AP231">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ231">
         <v>0.33</v>
@@ -49547,7 +49559,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -50246,7 +50258,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ235">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -50371,7 +50383,7 @@
         <v>269</v>
       </c>
       <c r="P236" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50452,7 +50464,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ236">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR236">
         <v>1.23</v>
@@ -50577,7 +50589,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50783,7 +50795,7 @@
         <v>270</v>
       </c>
       <c r="P238" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -50989,7 +51001,7 @@
         <v>271</v>
       </c>
       <c r="P239" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -51195,7 +51207,7 @@
         <v>272</v>
       </c>
       <c r="P240" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q240">
         <v>4.75</v>
@@ -51273,7 +51285,7 @@
         <v>1.83</v>
       </c>
       <c r="AP240">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ240">
         <v>1.83</v>
@@ -51401,7 +51413,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51479,7 +51491,7 @@
         <v>1.92</v>
       </c>
       <c r="AP241">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ241">
         <v>2.17</v>
@@ -51813,7 +51825,7 @@
         <v>274</v>
       </c>
       <c r="P243" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -51894,7 +51906,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ243">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR243">
         <v>1.79</v>
@@ -52019,7 +52031,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52225,7 +52237,7 @@
         <v>276</v>
       </c>
       <c r="P245" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q245">
         <v>2.05</v>
@@ -52306,7 +52318,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ245">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR245">
         <v>1.99</v>
@@ -52509,7 +52521,7 @@
         <v>1.33</v>
       </c>
       <c r="AP246">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ246">
         <v>1.18</v>
@@ -52637,7 +52649,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q247">
         <v>4.75</v>
@@ -52715,7 +52727,7 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ247">
         <v>0.9399999999999999</v>
@@ -52843,7 +52855,7 @@
         <v>278</v>
       </c>
       <c r="P248" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q248">
         <v>4.33</v>
@@ -52921,7 +52933,7 @@
         <v>1.58</v>
       </c>
       <c r="AP248">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ248">
         <v>1.41</v>
@@ -53049,7 +53061,7 @@
         <v>140</v>
       </c>
       <c r="P249" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q249">
         <v>2.38</v>
@@ -53333,7 +53345,7 @@
         <v>0.91</v>
       </c>
       <c r="AP250">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ250">
         <v>0.78</v>
@@ -53461,7 +53473,7 @@
         <v>279</v>
       </c>
       <c r="P251" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q251">
         <v>1.57</v>
@@ -53667,7 +53679,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q252">
         <v>2.05</v>
@@ -53748,7 +53760,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ252">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR252">
         <v>1.67</v>
@@ -53954,7 +53966,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ253">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR253">
         <v>1.87</v>
@@ -54285,7 +54297,7 @@
         <v>282</v>
       </c>
       <c r="P255" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q255">
         <v>2.05</v>
@@ -54366,7 +54378,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ255">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR255">
         <v>1.69</v>
@@ -54491,7 +54503,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -54775,10 +54787,10 @@
         <v>0.92</v>
       </c>
       <c r="AP257">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ257">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR257">
         <v>1.99</v>
@@ -55109,7 +55121,7 @@
         <v>284</v>
       </c>
       <c r="P259" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55602,7 +55614,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ261">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR261">
         <v>1.79</v>
@@ -55727,7 +55739,7 @@
         <v>286</v>
       </c>
       <c r="P262" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -55805,7 +55817,7 @@
         <v>1.31</v>
       </c>
       <c r="AP262">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ262">
         <v>1.18</v>
@@ -56139,7 +56151,7 @@
         <v>288</v>
       </c>
       <c r="P264" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56551,7 +56563,7 @@
         <v>290</v>
       </c>
       <c r="P266" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q266">
         <v>4.33</v>
@@ -56629,7 +56641,7 @@
         <v>1.62</v>
       </c>
       <c r="AP266">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ266">
         <v>1.65</v>
@@ -56757,7 +56769,7 @@
         <v>90</v>
       </c>
       <c r="P267" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56835,10 +56847,10 @@
         <v>1.15</v>
       </c>
       <c r="AP267">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ267">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR267">
         <v>1.25</v>
@@ -56963,7 +56975,7 @@
         <v>291</v>
       </c>
       <c r="P268" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q268">
         <v>1.67</v>
@@ -57041,7 +57053,7 @@
         <v>1.69</v>
       </c>
       <c r="AP268">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ268">
         <v>1.41</v>
@@ -57169,7 +57181,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -57247,7 +57259,7 @@
         <v>2</v>
       </c>
       <c r="AP269">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ269">
         <v>2.17</v>
@@ -57456,7 +57468,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ270">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR270">
         <v>1.7</v>
@@ -57581,7 +57593,7 @@
         <v>293</v>
       </c>
       <c r="P271" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57662,7 +57674,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ271">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR271">
         <v>1.33</v>
@@ -57787,7 +57799,7 @@
         <v>205</v>
       </c>
       <c r="P272" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q272">
         <v>2.3</v>
@@ -57993,7 +58005,7 @@
         <v>294</v>
       </c>
       <c r="P273" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q273">
         <v>1.8</v>
@@ -58277,7 +58289,7 @@
         <v>0.77</v>
       </c>
       <c r="AP274">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ274">
         <v>0.78</v>
@@ -58405,7 +58417,7 @@
         <v>90</v>
       </c>
       <c r="P275" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q275">
         <v>2.75</v>
@@ -58692,7 +58704,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ276">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR276">
         <v>1.87</v>
@@ -58817,7 +58829,7 @@
         <v>295</v>
       </c>
       <c r="P277" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59229,7 +59241,7 @@
         <v>297</v>
       </c>
       <c r="P279" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q279">
         <v>2.4</v>
@@ -59310,7 +59322,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ279">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR279">
         <v>1.56</v>
@@ -59435,7 +59447,7 @@
         <v>298</v>
       </c>
       <c r="P280" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q280">
         <v>2.05</v>
@@ -59719,7 +59731,7 @@
         <v>0.71</v>
       </c>
       <c r="AP281">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ281">
         <v>0.78</v>
@@ -59925,10 +59937,10 @@
         <v>0.64</v>
       </c>
       <c r="AP282">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ282">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR282">
         <v>1.46</v>
@@ -60465,7 +60477,7 @@
         <v>301</v>
       </c>
       <c r="P285" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q285">
         <v>2.38</v>
@@ -60671,7 +60683,7 @@
         <v>302</v>
       </c>
       <c r="P286" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q286">
         <v>4.75</v>
@@ -60749,10 +60761,10 @@
         <v>0.71</v>
       </c>
       <c r="AP286">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ286">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR286">
         <v>1.1</v>
@@ -60877,7 +60889,7 @@
         <v>303</v>
       </c>
       <c r="P287" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q287">
         <v>2.75</v>
@@ -60958,7 +60970,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ287">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR287">
         <v>1.54</v>
@@ -61083,7 +61095,7 @@
         <v>304</v>
       </c>
       <c r="P288" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q288">
         <v>1.73</v>
@@ -61289,7 +61301,7 @@
         <v>305</v>
       </c>
       <c r="P289" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q289">
         <v>1.57</v>
@@ -61782,7 +61794,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ291">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR291">
         <v>1.61</v>
@@ -61907,7 +61919,7 @@
         <v>307</v>
       </c>
       <c r="P292" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -61985,7 +61997,7 @@
         <v>1.57</v>
       </c>
       <c r="AP292">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ292">
         <v>1.41</v>
@@ -62113,7 +62125,7 @@
         <v>308</v>
       </c>
       <c r="P293" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q293">
         <v>1.8</v>
@@ -62397,7 +62409,7 @@
         <v>2.07</v>
       </c>
       <c r="AP294">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ294">
         <v>2.17</v>
@@ -62606,7 +62618,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ295">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR295">
         <v>1.27</v>
@@ -62731,7 +62743,7 @@
         <v>141</v>
       </c>
       <c r="P296" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q296">
         <v>2.4</v>
@@ -62812,7 +62824,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ296">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR296">
         <v>1.81</v>
@@ -62937,7 +62949,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -63015,10 +63027,10 @@
         <v>1.13</v>
       </c>
       <c r="AP297">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ297">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR297">
         <v>1.34</v>
@@ -63633,7 +63645,7 @@
         <v>1</v>
       </c>
       <c r="AP300">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ300">
         <v>0.9399999999999999</v>
@@ -63839,7 +63851,7 @@
         <v>0.67</v>
       </c>
       <c r="AP301">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ301">
         <v>0.5600000000000001</v>
@@ -63967,7 +63979,7 @@
         <v>313</v>
       </c>
       <c r="P302" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q302">
         <v>1.67</v>
@@ -64045,7 +64057,7 @@
         <v>1.67</v>
       </c>
       <c r="AP302">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ302">
         <v>1.65</v>
@@ -64173,7 +64185,7 @@
         <v>314</v>
       </c>
       <c r="P303" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q303">
         <v>1.36</v>
@@ -64379,7 +64391,7 @@
         <v>315</v>
       </c>
       <c r="P304" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q304">
         <v>2.5</v>
@@ -64585,7 +64597,7 @@
         <v>316</v>
       </c>
       <c r="P305" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q305">
         <v>7.5</v>
@@ -64791,7 +64803,7 @@
         <v>317</v>
       </c>
       <c r="P306" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q306">
         <v>2.2</v>
@@ -65075,10 +65087,10 @@
         <v>1.29</v>
       </c>
       <c r="AP307">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ307">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR307">
         <v>1.44</v>
@@ -65284,7 +65296,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ308">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR308">
         <v>1.53</v>
@@ -65615,7 +65627,7 @@
         <v>319</v>
       </c>
       <c r="P310" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q310">
         <v>3</v>
@@ -65821,7 +65833,7 @@
         <v>90</v>
       </c>
       <c r="P311" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q311">
         <v>4.75</v>
@@ -66027,7 +66039,7 @@
         <v>320</v>
       </c>
       <c r="P312" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66233,7 +66245,7 @@
         <v>321</v>
       </c>
       <c r="P313" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q313">
         <v>6</v>
@@ -66311,7 +66323,7 @@
         <v>1.29</v>
       </c>
       <c r="AP313">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ313">
         <v>1.18</v>
@@ -66520,7 +66532,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ314">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR314">
         <v>1.97</v>
@@ -66929,7 +66941,7 @@
         <v>0.4</v>
       </c>
       <c r="AP316">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ316">
         <v>0.33</v>
@@ -67135,7 +67147,7 @@
         <v>0.63</v>
       </c>
       <c r="AP317">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ317">
         <v>0.5600000000000001</v>
@@ -67341,7 +67353,7 @@
         <v>1</v>
       </c>
       <c r="AP318">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ318">
         <v>0.9399999999999999</v>
@@ -67469,7 +67481,7 @@
         <v>326</v>
       </c>
       <c r="P319" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q319">
         <v>2.88</v>
@@ -67550,7 +67562,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ319">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR319">
         <v>1.28</v>
@@ -67675,7 +67687,7 @@
         <v>327</v>
       </c>
       <c r="P320" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q320">
         <v>2.88</v>
@@ -68087,7 +68099,7 @@
         <v>90</v>
       </c>
       <c r="P322" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68168,7 +68180,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ322">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR322">
         <v>1.32</v>
@@ -68293,7 +68305,7 @@
         <v>90</v>
       </c>
       <c r="P323" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q323">
         <v>1.73</v>
@@ -68371,7 +68383,7 @@
         <v>1.56</v>
       </c>
       <c r="AP323">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ323">
         <v>1.65</v>
@@ -68580,7 +68592,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ324">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR324">
         <v>1.72</v>
@@ -68705,7 +68717,7 @@
         <v>265</v>
       </c>
       <c r="P325" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68783,7 +68795,7 @@
         <v>0.63</v>
       </c>
       <c r="AP325">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ325">
         <v>0.78</v>
@@ -68911,7 +68923,7 @@
         <v>113</v>
       </c>
       <c r="P326" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q326">
         <v>3.5</v>
@@ -68989,7 +69001,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP326">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ326">
         <v>0.78</v>
@@ -69117,7 +69129,7 @@
         <v>90</v>
       </c>
       <c r="P327" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -69404,7 +69416,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ328">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR328">
         <v>1.66</v>
@@ -69610,7 +69622,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ329">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR329">
         <v>1.57</v>
@@ -69735,7 +69747,7 @@
         <v>331</v>
       </c>
       <c r="P330" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q330">
         <v>2.75</v>
@@ -69941,7 +69953,7 @@
         <v>212</v>
       </c>
       <c r="P331" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -70225,7 +70237,7 @@
         <v>1.27</v>
       </c>
       <c r="AP332">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ332">
         <v>1.18</v>
@@ -70434,7 +70446,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ333">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR333">
         <v>1.31</v>
@@ -70559,7 +70571,7 @@
         <v>333</v>
       </c>
       <c r="P334" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q334">
         <v>1.8</v>
@@ -71052,7 +71064,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ336">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR336">
         <v>1.38</v>
@@ -71177,7 +71189,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q337">
         <v>5.5</v>
@@ -71383,7 +71395,7 @@
         <v>336</v>
       </c>
       <c r="P338" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -71795,7 +71807,7 @@
         <v>310</v>
       </c>
       <c r="P340" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q340">
         <v>1.91</v>
@@ -72207,7 +72219,7 @@
         <v>265</v>
       </c>
       <c r="P342" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q342">
         <v>2.6</v>
@@ -72619,7 +72631,7 @@
         <v>340</v>
       </c>
       <c r="P344" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q344">
         <v>2.63</v>
@@ -73031,7 +73043,7 @@
         <v>342</v>
       </c>
       <c r="P346" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q346">
         <v>3.75</v>
@@ -73237,7 +73249,7 @@
         <v>90</v>
       </c>
       <c r="P347" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q347">
         <v>7</v>
@@ -73600,6 +73612,1242 @@
       </c>
       <c r="BP348">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>6689310</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45415.66666666666</v>
+      </c>
+      <c r="F349">
+        <v>36</v>
+      </c>
+      <c r="G349" t="s">
+        <v>89</v>
+      </c>
+      <c r="H349" t="s">
+        <v>74</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>2</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" t="s">
+        <v>102</v>
+      </c>
+      <c r="P349" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q349">
+        <v>3.1</v>
+      </c>
+      <c r="R349">
+        <v>2.3</v>
+      </c>
+      <c r="S349">
+        <v>3.1</v>
+      </c>
+      <c r="T349">
+        <v>1.33</v>
+      </c>
+      <c r="U349">
+        <v>3.25</v>
+      </c>
+      <c r="V349">
+        <v>2.5</v>
+      </c>
+      <c r="W349">
+        <v>1.5</v>
+      </c>
+      <c r="X349">
+        <v>6.5</v>
+      </c>
+      <c r="Y349">
+        <v>1.11</v>
+      </c>
+      <c r="Z349">
+        <v>2.7</v>
+      </c>
+      <c r="AA349">
+        <v>3.3</v>
+      </c>
+      <c r="AB349">
+        <v>2.34</v>
+      </c>
+      <c r="AC349">
+        <v>1.01</v>
+      </c>
+      <c r="AD349">
+        <v>13</v>
+      </c>
+      <c r="AE349">
+        <v>1.2</v>
+      </c>
+      <c r="AF349">
+        <v>4.33</v>
+      </c>
+      <c r="AG349">
+        <v>1.67</v>
+      </c>
+      <c r="AH349">
+        <v>2.15</v>
+      </c>
+      <c r="AI349">
+        <v>1.57</v>
+      </c>
+      <c r="AJ349">
+        <v>2.25</v>
+      </c>
+      <c r="AK349">
+        <v>1.53</v>
+      </c>
+      <c r="AL349">
+        <v>1.28</v>
+      </c>
+      <c r="AM349">
+        <v>1.55</v>
+      </c>
+      <c r="AN349">
+        <v>0.88</v>
+      </c>
+      <c r="AO349">
+        <v>1.12</v>
+      </c>
+      <c r="AP349">
+        <v>0.89</v>
+      </c>
+      <c r="AQ349">
+        <v>1.11</v>
+      </c>
+      <c r="AR349">
+        <v>1.46</v>
+      </c>
+      <c r="AS349">
+        <v>1.29</v>
+      </c>
+      <c r="AT349">
+        <v>2.75</v>
+      </c>
+      <c r="AU349">
+        <v>-1</v>
+      </c>
+      <c r="AV349">
+        <v>-1</v>
+      </c>
+      <c r="AW349">
+        <v>-1</v>
+      </c>
+      <c r="AX349">
+        <v>-1</v>
+      </c>
+      <c r="AY349">
+        <v>-1</v>
+      </c>
+      <c r="AZ349">
+        <v>-1</v>
+      </c>
+      <c r="BA349">
+        <v>-1</v>
+      </c>
+      <c r="BB349">
+        <v>-1</v>
+      </c>
+      <c r="BC349">
+        <v>-1</v>
+      </c>
+      <c r="BD349">
+        <v>1.78</v>
+      </c>
+      <c r="BE349">
+        <v>8</v>
+      </c>
+      <c r="BF349">
+        <v>2.33</v>
+      </c>
+      <c r="BG349">
+        <v>1.15</v>
+      </c>
+      <c r="BH349">
+        <v>4.5</v>
+      </c>
+      <c r="BI349">
+        <v>1.28</v>
+      </c>
+      <c r="BJ349">
+        <v>3.1</v>
+      </c>
+      <c r="BK349">
+        <v>1.5</v>
+      </c>
+      <c r="BL349">
+        <v>2.33</v>
+      </c>
+      <c r="BM349">
+        <v>1.83</v>
+      </c>
+      <c r="BN349">
+        <v>1.86</v>
+      </c>
+      <c r="BO349">
+        <v>2.28</v>
+      </c>
+      <c r="BP349">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>6689303</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45416.35416666666</v>
+      </c>
+      <c r="F350">
+        <v>36</v>
+      </c>
+      <c r="G350" t="s">
+        <v>71</v>
+      </c>
+      <c r="H350" t="s">
+        <v>72</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>3</v>
+      </c>
+      <c r="O350" t="s">
+        <v>344</v>
+      </c>
+      <c r="P350" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q350">
+        <v>1.57</v>
+      </c>
+      <c r="R350">
+        <v>3.1</v>
+      </c>
+      <c r="S350">
+        <v>9</v>
+      </c>
+      <c r="T350">
+        <v>1.2</v>
+      </c>
+      <c r="U350">
+        <v>4.33</v>
+      </c>
+      <c r="V350">
+        <v>1.91</v>
+      </c>
+      <c r="W350">
+        <v>1.8</v>
+      </c>
+      <c r="X350">
+        <v>4</v>
+      </c>
+      <c r="Y350">
+        <v>1.22</v>
+      </c>
+      <c r="Z350">
+        <v>1.22</v>
+      </c>
+      <c r="AA350">
+        <v>6.5</v>
+      </c>
+      <c r="AB350">
+        <v>13</v>
+      </c>
+      <c r="AC350">
+        <v>1.01</v>
+      </c>
+      <c r="AD350">
+        <v>31</v>
+      </c>
+      <c r="AE350">
+        <v>1.1</v>
+      </c>
+      <c r="AF350">
+        <v>7.6</v>
+      </c>
+      <c r="AG350">
+        <v>1.32</v>
+      </c>
+      <c r="AH350">
+        <v>2.99</v>
+      </c>
+      <c r="AI350">
+        <v>1.8</v>
+      </c>
+      <c r="AJ350">
+        <v>1.95</v>
+      </c>
+      <c r="AK350">
+        <v>1.01</v>
+      </c>
+      <c r="AL350">
+        <v>1.1</v>
+      </c>
+      <c r="AM350">
+        <v>4.6</v>
+      </c>
+      <c r="AN350">
+        <v>2.41</v>
+      </c>
+      <c r="AO350">
+        <v>1.24</v>
+      </c>
+      <c r="AP350">
+        <v>2.44</v>
+      </c>
+      <c r="AQ350">
+        <v>1.17</v>
+      </c>
+      <c r="AR350">
+        <v>1.95</v>
+      </c>
+      <c r="AS350">
+        <v>1.47</v>
+      </c>
+      <c r="AT350">
+        <v>3.42</v>
+      </c>
+      <c r="AU350">
+        <v>10</v>
+      </c>
+      <c r="AV350">
+        <v>3</v>
+      </c>
+      <c r="AW350">
+        <v>8</v>
+      </c>
+      <c r="AX350">
+        <v>3</v>
+      </c>
+      <c r="AY350">
+        <v>18</v>
+      </c>
+      <c r="AZ350">
+        <v>6</v>
+      </c>
+      <c r="BA350">
+        <v>6</v>
+      </c>
+      <c r="BB350">
+        <v>1</v>
+      </c>
+      <c r="BC350">
+        <v>7</v>
+      </c>
+      <c r="BD350">
+        <v>1.19</v>
+      </c>
+      <c r="BE350">
+        <v>12</v>
+      </c>
+      <c r="BF350">
+        <v>6.5</v>
+      </c>
+      <c r="BG350">
+        <v>1.14</v>
+      </c>
+      <c r="BH350">
+        <v>4.8</v>
+      </c>
+      <c r="BI350">
+        <v>1.24</v>
+      </c>
+      <c r="BJ350">
+        <v>3.35</v>
+      </c>
+      <c r="BK350">
+        <v>1.44</v>
+      </c>
+      <c r="BL350">
+        <v>2.45</v>
+      </c>
+      <c r="BM350">
+        <v>1.74</v>
+      </c>
+      <c r="BN350">
+        <v>1.95</v>
+      </c>
+      <c r="BO350">
+        <v>2.15</v>
+      </c>
+      <c r="BP350">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>6689312</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F351">
+        <v>36</v>
+      </c>
+      <c r="G351" t="s">
+        <v>75</v>
+      </c>
+      <c r="H351" t="s">
+        <v>80</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>2</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>3</v>
+      </c>
+      <c r="N351">
+        <v>4</v>
+      </c>
+      <c r="O351" t="s">
+        <v>154</v>
+      </c>
+      <c r="P351" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q351">
+        <v>4.75</v>
+      </c>
+      <c r="R351">
+        <v>2.5</v>
+      </c>
+      <c r="S351">
+        <v>2.2</v>
+      </c>
+      <c r="T351">
+        <v>1.29</v>
+      </c>
+      <c r="U351">
+        <v>3.5</v>
+      </c>
+      <c r="V351">
+        <v>2.25</v>
+      </c>
+      <c r="W351">
+        <v>1.57</v>
+      </c>
+      <c r="X351">
+        <v>5.5</v>
+      </c>
+      <c r="Y351">
+        <v>1.14</v>
+      </c>
+      <c r="Z351">
+        <v>3.9</v>
+      </c>
+      <c r="AA351">
+        <v>3.7</v>
+      </c>
+      <c r="AB351">
+        <v>1.87</v>
+      </c>
+      <c r="AC351">
+        <v>1.03</v>
+      </c>
+      <c r="AD351">
+        <v>17</v>
+      </c>
+      <c r="AE351">
+        <v>1.19</v>
+      </c>
+      <c r="AF351">
+        <v>5</v>
+      </c>
+      <c r="AG351">
+        <v>1.67</v>
+      </c>
+      <c r="AH351">
+        <v>2.15</v>
+      </c>
+      <c r="AI351">
+        <v>1.62</v>
+      </c>
+      <c r="AJ351">
+        <v>2.2</v>
+      </c>
+      <c r="AK351">
+        <v>2.38</v>
+      </c>
+      <c r="AL351">
+        <v>1.22</v>
+      </c>
+      <c r="AM351">
+        <v>1.18</v>
+      </c>
+      <c r="AN351">
+        <v>0.59</v>
+      </c>
+      <c r="AO351">
+        <v>0.59</v>
+      </c>
+      <c r="AP351">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ351">
+        <v>0.72</v>
+      </c>
+      <c r="AR351">
+        <v>1.19</v>
+      </c>
+      <c r="AS351">
+        <v>1.18</v>
+      </c>
+      <c r="AT351">
+        <v>2.37</v>
+      </c>
+      <c r="AU351">
+        <v>-1</v>
+      </c>
+      <c r="AV351">
+        <v>-1</v>
+      </c>
+      <c r="AW351">
+        <v>-1</v>
+      </c>
+      <c r="AX351">
+        <v>-1</v>
+      </c>
+      <c r="AY351">
+        <v>-1</v>
+      </c>
+      <c r="AZ351">
+        <v>-1</v>
+      </c>
+      <c r="BA351">
+        <v>-1</v>
+      </c>
+      <c r="BB351">
+        <v>-1</v>
+      </c>
+      <c r="BC351">
+        <v>-1</v>
+      </c>
+      <c r="BD351">
+        <v>2.7</v>
+      </c>
+      <c r="BE351">
+        <v>8.5</v>
+      </c>
+      <c r="BF351">
+        <v>1.6</v>
+      </c>
+      <c r="BG351">
+        <v>1.15</v>
+      </c>
+      <c r="BH351">
+        <v>4.4</v>
+      </c>
+      <c r="BI351">
+        <v>1.28</v>
+      </c>
+      <c r="BJ351">
+        <v>3.1</v>
+      </c>
+      <c r="BK351">
+        <v>1.5</v>
+      </c>
+      <c r="BL351">
+        <v>2.33</v>
+      </c>
+      <c r="BM351">
+        <v>1.84</v>
+      </c>
+      <c r="BN351">
+        <v>1.85</v>
+      </c>
+      <c r="BO351">
+        <v>2.28</v>
+      </c>
+      <c r="BP351">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>6689304</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>77</v>
+      </c>
+      <c r="H352" t="s">
+        <v>82</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352" t="s">
+        <v>90</v>
+      </c>
+      <c r="P352" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q352">
+        <v>2.63</v>
+      </c>
+      <c r="R352">
+        <v>2.38</v>
+      </c>
+      <c r="S352">
+        <v>3.6</v>
+      </c>
+      <c r="T352">
+        <v>1.3</v>
+      </c>
+      <c r="U352">
+        <v>3.4</v>
+      </c>
+      <c r="V352">
+        <v>2.38</v>
+      </c>
+      <c r="W352">
+        <v>1.53</v>
+      </c>
+      <c r="X352">
+        <v>6</v>
+      </c>
+      <c r="Y352">
+        <v>1.13</v>
+      </c>
+      <c r="Z352">
+        <v>2.3</v>
+      </c>
+      <c r="AA352">
+        <v>3.5</v>
+      </c>
+      <c r="AB352">
+        <v>2.87</v>
+      </c>
+      <c r="AC352">
+        <v>1.03</v>
+      </c>
+      <c r="AD352">
+        <v>16</v>
+      </c>
+      <c r="AE352">
+        <v>1.21</v>
+      </c>
+      <c r="AF352">
+        <v>4.7</v>
+      </c>
+      <c r="AG352">
+        <v>1.6</v>
+      </c>
+      <c r="AH352">
+        <v>2.25</v>
+      </c>
+      <c r="AI352">
+        <v>1.53</v>
+      </c>
+      <c r="AJ352">
+        <v>2.38</v>
+      </c>
+      <c r="AK352">
+        <v>1.35</v>
+      </c>
+      <c r="AL352">
+        <v>1.26</v>
+      </c>
+      <c r="AM352">
+        <v>1.81</v>
+      </c>
+      <c r="AN352">
+        <v>1.24</v>
+      </c>
+      <c r="AO352">
+        <v>0.82</v>
+      </c>
+      <c r="AP352">
+        <v>1.22</v>
+      </c>
+      <c r="AQ352">
+        <v>0.83</v>
+      </c>
+      <c r="AR352">
+        <v>1.47</v>
+      </c>
+      <c r="AS352">
+        <v>1.41</v>
+      </c>
+      <c r="AT352">
+        <v>2.88</v>
+      </c>
+      <c r="AU352">
+        <v>-1</v>
+      </c>
+      <c r="AV352">
+        <v>-1</v>
+      </c>
+      <c r="AW352">
+        <v>-1</v>
+      </c>
+      <c r="AX352">
+        <v>-1</v>
+      </c>
+      <c r="AY352">
+        <v>-1</v>
+      </c>
+      <c r="AZ352">
+        <v>-1</v>
+      </c>
+      <c r="BA352">
+        <v>-1</v>
+      </c>
+      <c r="BB352">
+        <v>-1</v>
+      </c>
+      <c r="BC352">
+        <v>-1</v>
+      </c>
+      <c r="BD352">
+        <v>1.71</v>
+      </c>
+      <c r="BE352">
+        <v>8</v>
+      </c>
+      <c r="BF352">
+        <v>2.48</v>
+      </c>
+      <c r="BG352">
+        <v>1.18</v>
+      </c>
+      <c r="BH352">
+        <v>4</v>
+      </c>
+      <c r="BI352">
+        <v>1.33</v>
+      </c>
+      <c r="BJ352">
+        <v>2.85</v>
+      </c>
+      <c r="BK352">
+        <v>1.58</v>
+      </c>
+      <c r="BL352">
+        <v>2.16</v>
+      </c>
+      <c r="BM352">
+        <v>1.96</v>
+      </c>
+      <c r="BN352">
+        <v>1.73</v>
+      </c>
+      <c r="BO352">
+        <v>2.5</v>
+      </c>
+      <c r="BP352">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>6689306</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>70</v>
+      </c>
+      <c r="H353" t="s">
+        <v>76</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>3</v>
+      </c>
+      <c r="K353">
+        <v>3</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>4</v>
+      </c>
+      <c r="N353">
+        <v>5</v>
+      </c>
+      <c r="O353" t="s">
+        <v>148</v>
+      </c>
+      <c r="P353" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q353">
+        <v>3.6</v>
+      </c>
+      <c r="R353">
+        <v>2.5</v>
+      </c>
+      <c r="S353">
+        <v>2.5</v>
+      </c>
+      <c r="T353">
+        <v>1.25</v>
+      </c>
+      <c r="U353">
+        <v>3.75</v>
+      </c>
+      <c r="V353">
+        <v>2.1</v>
+      </c>
+      <c r="W353">
+        <v>1.67</v>
+      </c>
+      <c r="X353">
+        <v>5</v>
+      </c>
+      <c r="Y353">
+        <v>1.17</v>
+      </c>
+      <c r="Z353">
+        <v>3.4</v>
+      </c>
+      <c r="AA353">
+        <v>3.7</v>
+      </c>
+      <c r="AB353">
+        <v>1.91</v>
+      </c>
+      <c r="AC353">
+        <v>1.02</v>
+      </c>
+      <c r="AD353">
+        <v>21</v>
+      </c>
+      <c r="AE353">
+        <v>1.14</v>
+      </c>
+      <c r="AF353">
+        <v>6</v>
+      </c>
+      <c r="AG353">
+        <v>1.47</v>
+      </c>
+      <c r="AH353">
+        <v>2.45</v>
+      </c>
+      <c r="AI353">
+        <v>1.44</v>
+      </c>
+      <c r="AJ353">
+        <v>2.63</v>
+      </c>
+      <c r="AK353">
+        <v>1.87</v>
+      </c>
+      <c r="AL353">
+        <v>1.24</v>
+      </c>
+      <c r="AM353">
+        <v>1.34</v>
+      </c>
+      <c r="AN353">
+        <v>0.59</v>
+      </c>
+      <c r="AO353">
+        <v>0.88</v>
+      </c>
+      <c r="AP353">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ353">
+        <v>1</v>
+      </c>
+      <c r="AR353">
+        <v>1.36</v>
+      </c>
+      <c r="AS353">
+        <v>1.21</v>
+      </c>
+      <c r="AT353">
+        <v>2.57</v>
+      </c>
+      <c r="AU353">
+        <v>-1</v>
+      </c>
+      <c r="AV353">
+        <v>-1</v>
+      </c>
+      <c r="AW353">
+        <v>-1</v>
+      </c>
+      <c r="AX353">
+        <v>-1</v>
+      </c>
+      <c r="AY353">
+        <v>-1</v>
+      </c>
+      <c r="AZ353">
+        <v>-1</v>
+      </c>
+      <c r="BA353">
+        <v>-1</v>
+      </c>
+      <c r="BB353">
+        <v>-1</v>
+      </c>
+      <c r="BC353">
+        <v>-1</v>
+      </c>
+      <c r="BD353">
+        <v>2.35</v>
+      </c>
+      <c r="BE353">
+        <v>8</v>
+      </c>
+      <c r="BF353">
+        <v>1.77</v>
+      </c>
+      <c r="BG353">
+        <v>1.16</v>
+      </c>
+      <c r="BH353">
+        <v>4.25</v>
+      </c>
+      <c r="BI353">
+        <v>1.3</v>
+      </c>
+      <c r="BJ353">
+        <v>2.95</v>
+      </c>
+      <c r="BK353">
+        <v>1.54</v>
+      </c>
+      <c r="BL353">
+        <v>2.23</v>
+      </c>
+      <c r="BM353">
+        <v>1.89</v>
+      </c>
+      <c r="BN353">
+        <v>1.79</v>
+      </c>
+      <c r="BO353">
+        <v>2.38</v>
+      </c>
+      <c r="BP353">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>6689311</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45416.5625</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>85</v>
+      </c>
+      <c r="H354" t="s">
+        <v>81</v>
+      </c>
+      <c r="I354">
+        <v>3</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>3</v>
+      </c>
+      <c r="L354">
+        <v>5</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>6</v>
+      </c>
+      <c r="O354" t="s">
+        <v>345</v>
+      </c>
+      <c r="P354" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q354">
+        <v>1.4</v>
+      </c>
+      <c r="R354">
+        <v>3.5</v>
+      </c>
+      <c r="S354">
+        <v>15</v>
+      </c>
+      <c r="T354">
+        <v>1.18</v>
+      </c>
+      <c r="U354">
+        <v>4.5</v>
+      </c>
+      <c r="V354">
+        <v>1.83</v>
+      </c>
+      <c r="W354">
+        <v>1.83</v>
+      </c>
+      <c r="X354">
+        <v>3.75</v>
+      </c>
+      <c r="Y354">
+        <v>1.25</v>
+      </c>
+      <c r="Z354">
+        <v>1.09</v>
+      </c>
+      <c r="AA354">
+        <v>9.5</v>
+      </c>
+      <c r="AB354">
+        <v>25</v>
+      </c>
+      <c r="AC354">
+        <v>1.01</v>
+      </c>
+      <c r="AD354">
+        <v>39</v>
+      </c>
+      <c r="AE354">
+        <v>1.09</v>
+      </c>
+      <c r="AF354">
+        <v>7.45</v>
+      </c>
+      <c r="AG354">
+        <v>1.31</v>
+      </c>
+      <c r="AH354">
+        <v>3.06</v>
+      </c>
+      <c r="AI354">
+        <v>2.25</v>
+      </c>
+      <c r="AJ354">
+        <v>1.57</v>
+      </c>
+      <c r="AK354">
+        <v>1.01</v>
+      </c>
+      <c r="AL354">
+        <v>1.05</v>
+      </c>
+      <c r="AM354">
+        <v>7</v>
+      </c>
+      <c r="AN354">
+        <v>2.41</v>
+      </c>
+      <c r="AO354">
+        <v>1.12</v>
+      </c>
+      <c r="AP354">
+        <v>2.44</v>
+      </c>
+      <c r="AQ354">
+        <v>1.06</v>
+      </c>
+      <c r="AR354">
+        <v>2.02</v>
+      </c>
+      <c r="AS354">
+        <v>1.27</v>
+      </c>
+      <c r="AT354">
+        <v>3.29</v>
+      </c>
+      <c r="AU354">
+        <v>-1</v>
+      </c>
+      <c r="AV354">
+        <v>-1</v>
+      </c>
+      <c r="AW354">
+        <v>-1</v>
+      </c>
+      <c r="AX354">
+        <v>-1</v>
+      </c>
+      <c r="AY354">
+        <v>-1</v>
+      </c>
+      <c r="AZ354">
+        <v>-1</v>
+      </c>
+      <c r="BA354">
+        <v>-1</v>
+      </c>
+      <c r="BB354">
+        <v>-1</v>
+      </c>
+      <c r="BC354">
+        <v>-1</v>
+      </c>
+      <c r="BD354">
+        <v>1.1</v>
+      </c>
+      <c r="BE354">
+        <v>18</v>
+      </c>
+      <c r="BF354">
+        <v>11</v>
+      </c>
+      <c r="BG354">
+        <v>1.12</v>
+      </c>
+      <c r="BH354">
+        <v>5.2</v>
+      </c>
+      <c r="BI354">
+        <v>1.21</v>
+      </c>
+      <c r="BJ354">
+        <v>3.6</v>
+      </c>
+      <c r="BK354">
+        <v>1.38</v>
+      </c>
+      <c r="BL354">
+        <v>2.63</v>
+      </c>
+      <c r="BM354">
+        <v>1.65</v>
+      </c>
+      <c r="BN354">
+        <v>2.07</v>
+      </c>
+      <c r="BO354">
+        <v>2.02</v>
+      </c>
+      <c r="BP354">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="516">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1054,6 +1054,12 @@
     <t>['12', '35', '45+3', '54', '85']</t>
   </si>
   <si>
+    <t>['15', '30', '36', '48', '80']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['4', '36', '75']</t>
   </si>
   <si>
@@ -1079,9 +1085,6 @@
   </si>
   <si>
     <t>['17', '63']</t>
-  </si>
-  <si>
-    <t>['87']</t>
   </si>
   <si>
     <t>['2', '4']</t>
@@ -1920,7 +1923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP354"/>
+  <dimension ref="A1:BP356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2179,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -2591,7 +2594,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2672,7 +2675,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2875,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ5">
         <v>0.5600000000000001</v>
@@ -3496,7 +3499,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3621,7 +3624,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3905,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10">
         <v>1.83</v>
@@ -4239,7 +4242,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q12">
         <v>2.6</v>
@@ -4445,7 +4448,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4651,7 +4654,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4857,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q15">
         <v>1.62</v>
@@ -5887,7 +5890,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -6171,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21">
         <v>0.5600000000000001</v>
@@ -6299,7 +6302,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6505,7 +6508,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6711,7 +6714,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q24">
         <v>1.73</v>
@@ -6917,7 +6920,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q25">
         <v>1.62</v>
@@ -7329,7 +7332,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7407,10 +7410,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ27">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR27">
         <v>2.91</v>
@@ -7535,7 +7538,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7616,7 +7619,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ28">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>0.65</v>
@@ -7741,7 +7744,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -7947,7 +7950,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -8153,7 +8156,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -8234,7 +8237,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ31">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8359,7 +8362,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8771,7 +8774,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q34">
         <v>1.91</v>
@@ -8849,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ34">
         <v>0.72</v>
@@ -8977,7 +8980,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -9183,7 +9186,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -9467,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9595,7 +9598,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9882,7 +9885,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ39">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>2.42</v>
@@ -10213,7 +10216,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10625,7 +10628,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q43">
         <v>5.5</v>
@@ -11037,7 +11040,7 @@
         <v>126</v>
       </c>
       <c r="P45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11861,7 +11864,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q49">
         <v>5.5</v>
@@ -12891,7 +12894,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q54">
         <v>2.4</v>
@@ -13384,7 +13387,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ56">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -13587,10 +13590,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR57">
         <v>1.65</v>
@@ -13793,7 +13796,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13921,7 +13924,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -14127,7 +14130,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14539,7 +14542,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q62">
         <v>7.5</v>
@@ -14745,7 +14748,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14951,7 +14954,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15981,7 +15984,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -16187,7 +16190,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16393,7 +16396,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16805,7 +16808,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -17217,7 +17220,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -17835,7 +17838,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17913,7 +17916,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ78">
         <v>1.83</v>
@@ -18041,7 +18044,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -18328,7 +18331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -19277,7 +19280,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -19689,7 +19692,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19895,7 +19898,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19973,7 +19976,7 @@
         <v>3</v>
       </c>
       <c r="AP88">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ88">
         <v>2.17</v>
@@ -20101,7 +20104,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20388,7 +20391,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ90">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -20719,7 +20722,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20925,7 +20928,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21003,7 +21006,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ93">
         <v>0.78</v>
@@ -21543,7 +21546,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q96">
         <v>4.75</v>
@@ -21749,7 +21752,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -22239,7 +22242,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ99">
         <v>0.83</v>
@@ -22573,7 +22576,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22779,7 +22782,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -23603,7 +23606,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23809,7 +23812,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23890,7 +23893,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR107">
         <v>1.58</v>
@@ -24302,7 +24305,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -24633,7 +24636,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24839,7 +24842,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -25045,7 +25048,7 @@
         <v>173</v>
       </c>
       <c r="P113" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q113">
         <v>1.57</v>
@@ -25457,7 +25460,7 @@
         <v>175</v>
       </c>
       <c r="P115" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q115">
         <v>3.2</v>
@@ -25869,7 +25872,7 @@
         <v>177</v>
       </c>
       <c r="P117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q117">
         <v>2.5</v>
@@ -26075,7 +26078,7 @@
         <v>178</v>
       </c>
       <c r="P118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -26359,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="AP119">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119">
         <v>0.33</v>
@@ -26693,7 +26696,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26771,7 +26774,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
         <v>2.24</v>
@@ -27105,7 +27108,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -27311,7 +27314,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -27929,7 +27932,7 @@
         <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28010,7 +28013,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ127">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR127">
         <v>1.22</v>
@@ -28341,7 +28344,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28422,7 +28425,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ129">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR129">
         <v>1.93</v>
@@ -28547,7 +28550,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28753,7 +28756,7 @@
         <v>188</v>
       </c>
       <c r="P131" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -30195,7 +30198,7 @@
         <v>194</v>
       </c>
       <c r="P138" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q138">
         <v>2.2</v>
@@ -30273,7 +30276,7 @@
         <v>1.67</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ138">
         <v>0.9399999999999999</v>
@@ -30401,7 +30404,7 @@
         <v>195</v>
       </c>
       <c r="P139" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q139">
         <v>1.67</v>
@@ -30607,7 +30610,7 @@
         <v>196</v>
       </c>
       <c r="P140" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30688,7 +30691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30813,7 +30816,7 @@
         <v>197</v>
       </c>
       <c r="P141" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q141">
         <v>1.67</v>
@@ -31225,7 +31228,7 @@
         <v>199</v>
       </c>
       <c r="P143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -31509,7 +31512,7 @@
         <v>1.17</v>
       </c>
       <c r="AP144">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ144">
         <v>0.78</v>
@@ -31637,7 +31640,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -32049,7 +32052,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q147">
         <v>8.5</v>
@@ -32873,7 +32876,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q151">
         <v>2.3</v>
@@ -32954,7 +32957,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ151">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR151">
         <v>2</v>
@@ -33079,7 +33082,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -33775,7 +33778,7 @@
         <v>0.57</v>
       </c>
       <c r="AP155">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ155">
         <v>0.78</v>
@@ -33903,7 +33906,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -34602,7 +34605,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ159">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34727,7 +34730,7 @@
         <v>212</v>
       </c>
       <c r="P160" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q160">
         <v>11</v>
@@ -34933,7 +34936,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -35139,7 +35142,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q162">
         <v>4.5</v>
@@ -35551,7 +35554,7 @@
         <v>215</v>
       </c>
       <c r="P164" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35835,7 +35838,7 @@
         <v>0.14</v>
       </c>
       <c r="AP165">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ165">
         <v>0.33</v>
@@ -35963,7 +35966,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -36375,7 +36378,7 @@
         <v>218</v>
       </c>
       <c r="P168" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36456,7 +36459,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ168">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>1.56</v>
@@ -37199,7 +37202,7 @@
         <v>182</v>
       </c>
       <c r="P172" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q172">
         <v>1.62</v>
@@ -37817,7 +37820,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q175">
         <v>2.25</v>
@@ -38229,7 +38232,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -38435,7 +38438,7 @@
         <v>223</v>
       </c>
       <c r="P178" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38641,7 +38644,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38847,7 +38850,7 @@
         <v>225</v>
       </c>
       <c r="P180" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q180">
         <v>1.95</v>
@@ -39259,7 +39262,7 @@
         <v>227</v>
       </c>
       <c r="P182" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39465,7 +39468,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -39671,7 +39674,7 @@
         <v>228</v>
       </c>
       <c r="P184" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39752,7 +39755,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ184">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
         <v>1.76</v>
@@ -39877,7 +39880,7 @@
         <v>229</v>
       </c>
       <c r="P185" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -40161,7 +40164,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -40289,7 +40292,7 @@
         <v>223</v>
       </c>
       <c r="P187" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40495,7 +40498,7 @@
         <v>231</v>
       </c>
       <c r="P188" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q188">
         <v>2.88</v>
@@ -40573,7 +40576,7 @@
         <v>2</v>
       </c>
       <c r="AP188">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ188">
         <v>1.41</v>
@@ -40701,7 +40704,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40782,7 +40785,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ189">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR189">
         <v>1.93</v>
@@ -40907,7 +40910,7 @@
         <v>232</v>
       </c>
       <c r="P190" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -41319,7 +41322,7 @@
         <v>234</v>
       </c>
       <c r="P192" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q192">
         <v>1.83</v>
@@ -41525,7 +41528,7 @@
         <v>235</v>
       </c>
       <c r="P193" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q193">
         <v>3.1</v>
@@ -41937,7 +41940,7 @@
         <v>237</v>
       </c>
       <c r="P195" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -42555,7 +42558,7 @@
         <v>240</v>
       </c>
       <c r="P198" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q198">
         <v>1.91</v>
@@ -43251,7 +43254,7 @@
         <v>0.6</v>
       </c>
       <c r="AP201">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ201">
         <v>0.83</v>
@@ -43379,7 +43382,7 @@
         <v>242</v>
       </c>
       <c r="P202" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43666,7 +43669,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ203">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR203">
         <v>1.67</v>
@@ -43791,7 +43794,7 @@
         <v>243</v>
       </c>
       <c r="P204" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -44203,7 +44206,7 @@
         <v>245</v>
       </c>
       <c r="P206" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44409,7 +44412,7 @@
         <v>246</v>
       </c>
       <c r="P207" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44490,7 +44493,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ207">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR207">
         <v>1.14</v>
@@ -44615,7 +44618,7 @@
         <v>90</v>
       </c>
       <c r="P208" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44899,7 +44902,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -45027,7 +45030,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q210">
         <v>6.5</v>
@@ -45645,7 +45648,7 @@
         <v>249</v>
       </c>
       <c r="P213" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45851,7 +45854,7 @@
         <v>250</v>
       </c>
       <c r="P214" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -46057,7 +46060,7 @@
         <v>251</v>
       </c>
       <c r="P215" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q215">
         <v>1.4</v>
@@ -46263,7 +46266,7 @@
         <v>252</v>
       </c>
       <c r="P216" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46675,7 +46678,7 @@
         <v>99</v>
       </c>
       <c r="P218" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -46881,7 +46884,7 @@
         <v>254</v>
       </c>
       <c r="P219" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -47087,7 +47090,7 @@
         <v>255</v>
       </c>
       <c r="P220" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47371,7 +47374,7 @@
         <v>1.09</v>
       </c>
       <c r="AP221">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ221">
         <v>1</v>
@@ -47499,7 +47502,7 @@
         <v>257</v>
       </c>
       <c r="P222" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q222">
         <v>3.5</v>
@@ -47705,7 +47708,7 @@
         <v>258</v>
       </c>
       <c r="P223" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q223">
         <v>1.8</v>
@@ -47911,7 +47914,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -47992,7 +47995,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ224">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR224">
         <v>1.2</v>
@@ -48323,7 +48326,7 @@
         <v>260</v>
       </c>
       <c r="P226" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q226">
         <v>2.2</v>
@@ -48401,7 +48404,7 @@
         <v>1</v>
       </c>
       <c r="AP226">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ226">
         <v>1.06</v>
@@ -48610,7 +48613,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ227">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR227">
         <v>1.69</v>
@@ -48735,7 +48738,7 @@
         <v>262</v>
       </c>
       <c r="P228" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48941,7 +48944,7 @@
         <v>263</v>
       </c>
       <c r="P229" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49353,7 +49356,7 @@
         <v>265</v>
       </c>
       <c r="P231" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q231">
         <v>2.3</v>
@@ -49559,7 +49562,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -50383,7 +50386,7 @@
         <v>269</v>
       </c>
       <c r="P236" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50589,7 +50592,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50795,7 +50798,7 @@
         <v>270</v>
       </c>
       <c r="P238" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -51001,7 +51004,7 @@
         <v>271</v>
       </c>
       <c r="P239" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -51207,7 +51210,7 @@
         <v>272</v>
       </c>
       <c r="P240" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q240">
         <v>4.75</v>
@@ -51413,7 +51416,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51700,7 +51703,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ242">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR242">
         <v>1.24</v>
@@ -51825,7 +51828,7 @@
         <v>274</v>
       </c>
       <c r="P243" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -52031,7 +52034,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52112,7 +52115,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ244">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR244">
         <v>1.53</v>
@@ -52237,7 +52240,7 @@
         <v>276</v>
       </c>
       <c r="P245" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q245">
         <v>2.05</v>
@@ -52649,7 +52652,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q247">
         <v>4.75</v>
@@ -52855,7 +52858,7 @@
         <v>278</v>
       </c>
       <c r="P248" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q248">
         <v>4.33</v>
@@ -53061,7 +53064,7 @@
         <v>140</v>
       </c>
       <c r="P249" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q249">
         <v>2.38</v>
@@ -53473,7 +53476,7 @@
         <v>279</v>
       </c>
       <c r="P251" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q251">
         <v>1.57</v>
@@ -53679,7 +53682,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q252">
         <v>2.05</v>
@@ -53963,7 +53966,7 @@
         <v>1.42</v>
       </c>
       <c r="AP253">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ253">
         <v>1.11</v>
@@ -54297,7 +54300,7 @@
         <v>282</v>
       </c>
       <c r="P255" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q255">
         <v>2.05</v>
@@ -54503,7 +54506,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -55121,7 +55124,7 @@
         <v>284</v>
       </c>
       <c r="P259" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55739,7 +55742,7 @@
         <v>286</v>
       </c>
       <c r="P262" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -56151,7 +56154,7 @@
         <v>288</v>
       </c>
       <c r="P264" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56232,7 +56235,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ264">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR264">
         <v>1.64</v>
@@ -56563,7 +56566,7 @@
         <v>290</v>
       </c>
       <c r="P266" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q266">
         <v>4.33</v>
@@ -56644,7 +56647,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ266">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR266">
         <v>1.47</v>
@@ -56769,7 +56772,7 @@
         <v>90</v>
       </c>
       <c r="P267" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56975,7 +56978,7 @@
         <v>291</v>
       </c>
       <c r="P268" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q268">
         <v>1.67</v>
@@ -57181,7 +57184,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -57593,7 +57596,7 @@
         <v>293</v>
       </c>
       <c r="P271" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57799,7 +57802,7 @@
         <v>205</v>
       </c>
       <c r="P272" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q272">
         <v>2.3</v>
@@ -58005,7 +58008,7 @@
         <v>294</v>
       </c>
       <c r="P273" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q273">
         <v>1.8</v>
@@ -58417,7 +58420,7 @@
         <v>90</v>
       </c>
       <c r="P275" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q275">
         <v>2.75</v>
@@ -58701,7 +58704,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP276">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ276">
         <v>0.72</v>
@@ -58829,7 +58832,7 @@
         <v>295</v>
       </c>
       <c r="P277" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59241,7 +59244,7 @@
         <v>297</v>
       </c>
       <c r="P279" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q279">
         <v>2.4</v>
@@ -59319,7 +59322,7 @@
         <v>0.85</v>
       </c>
       <c r="AP279">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ279">
         <v>1</v>
@@ -59447,7 +59450,7 @@
         <v>298</v>
       </c>
       <c r="P280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q280">
         <v>2.05</v>
@@ -60352,7 +60355,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ284">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR284">
         <v>1.32</v>
@@ -60477,7 +60480,7 @@
         <v>301</v>
       </c>
       <c r="P285" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q285">
         <v>2.38</v>
@@ -60558,7 +60561,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ285">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR285">
         <v>1.78</v>
@@ -60683,7 +60686,7 @@
         <v>302</v>
       </c>
       <c r="P286" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q286">
         <v>4.75</v>
@@ -60889,7 +60892,7 @@
         <v>303</v>
       </c>
       <c r="P287" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q287">
         <v>2.75</v>
@@ -61095,7 +61098,7 @@
         <v>304</v>
       </c>
       <c r="P288" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q288">
         <v>1.73</v>
@@ -61173,7 +61176,7 @@
         <v>0.64</v>
       </c>
       <c r="AP288">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ288">
         <v>0.78</v>
@@ -61301,7 +61304,7 @@
         <v>305</v>
       </c>
       <c r="P289" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q289">
         <v>1.57</v>
@@ -61919,7 +61922,7 @@
         <v>307</v>
       </c>
       <c r="P292" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62125,7 +62128,7 @@
         <v>308</v>
       </c>
       <c r="P293" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q293">
         <v>1.8</v>
@@ -62743,7 +62746,7 @@
         <v>141</v>
       </c>
       <c r="P296" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q296">
         <v>2.4</v>
@@ -62949,7 +62952,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -63979,7 +63982,7 @@
         <v>313</v>
       </c>
       <c r="P302" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q302">
         <v>1.67</v>
@@ -64060,7 +64063,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ302">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR302">
         <v>1.85</v>
@@ -64185,7 +64188,7 @@
         <v>314</v>
       </c>
       <c r="P303" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q303">
         <v>1.36</v>
@@ -64391,7 +64394,7 @@
         <v>315</v>
       </c>
       <c r="P304" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q304">
         <v>2.5</v>
@@ -64469,7 +64472,7 @@
         <v>1.53</v>
       </c>
       <c r="AP304">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ304">
         <v>1.41</v>
@@ -64597,7 +64600,7 @@
         <v>316</v>
       </c>
       <c r="P305" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q305">
         <v>7.5</v>
@@ -64803,7 +64806,7 @@
         <v>317</v>
       </c>
       <c r="P306" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q306">
         <v>2.2</v>
@@ -65627,7 +65630,7 @@
         <v>319</v>
       </c>
       <c r="P310" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q310">
         <v>3</v>
@@ -65708,7 +65711,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ310">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR310">
         <v>1.32</v>
@@ -65833,7 +65836,7 @@
         <v>90</v>
       </c>
       <c r="P311" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q311">
         <v>4.75</v>
@@ -65911,7 +65914,7 @@
         <v>2</v>
       </c>
       <c r="AP311">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ311">
         <v>2.17</v>
@@ -66039,7 +66042,7 @@
         <v>320</v>
       </c>
       <c r="P312" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66245,7 +66248,7 @@
         <v>321</v>
       </c>
       <c r="P313" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q313">
         <v>6</v>
@@ -67481,7 +67484,7 @@
         <v>326</v>
       </c>
       <c r="P319" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q319">
         <v>2.88</v>
@@ -67687,7 +67690,7 @@
         <v>327</v>
       </c>
       <c r="P320" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q320">
         <v>2.88</v>
@@ -68099,7 +68102,7 @@
         <v>90</v>
       </c>
       <c r="P322" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68305,7 +68308,7 @@
         <v>90</v>
       </c>
       <c r="P323" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q323">
         <v>1.73</v>
@@ -68386,7 +68389,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ323">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR323">
         <v>1.94</v>
@@ -68589,7 +68592,7 @@
         <v>1.19</v>
       </c>
       <c r="AP324">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ324">
         <v>1.11</v>
@@ -68717,7 +68720,7 @@
         <v>265</v>
       </c>
       <c r="P325" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68923,7 +68926,7 @@
         <v>113</v>
       </c>
       <c r="P326" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q326">
         <v>3.5</v>
@@ -69129,7 +69132,7 @@
         <v>90</v>
       </c>
       <c r="P327" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -69747,7 +69750,7 @@
         <v>331</v>
       </c>
       <c r="P330" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q330">
         <v>2.75</v>
@@ -69828,7 +69831,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ330">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR330">
         <v>1.34</v>
@@ -69953,7 +69956,7 @@
         <v>212</v>
       </c>
       <c r="P331" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -70571,7 +70574,7 @@
         <v>333</v>
       </c>
       <c r="P334" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q334">
         <v>1.8</v>
@@ -71189,7 +71192,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q337">
         <v>5.5</v>
@@ -71267,7 +71270,7 @@
         <v>2.13</v>
       </c>
       <c r="AP337">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ337">
         <v>2.24</v>
@@ -71395,7 +71398,7 @@
         <v>336</v>
       </c>
       <c r="P338" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -71807,7 +71810,7 @@
         <v>310</v>
       </c>
       <c r="P340" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q340">
         <v>1.91</v>
@@ -72219,7 +72222,7 @@
         <v>265</v>
       </c>
       <c r="P342" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q342">
         <v>2.6</v>
@@ -72631,7 +72634,7 @@
         <v>340</v>
       </c>
       <c r="P344" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q344">
         <v>2.63</v>
@@ -73043,7 +73046,7 @@
         <v>342</v>
       </c>
       <c r="P346" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q346">
         <v>3.75</v>
@@ -73249,7 +73252,7 @@
         <v>90</v>
       </c>
       <c r="P347" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q347">
         <v>7</v>
@@ -73533,7 +73536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP348">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ348">
         <v>1.41</v>
@@ -73661,7 +73664,7 @@
         <v>102</v>
       </c>
       <c r="P349" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q349">
         <v>3.1</v>
@@ -73754,31 +73757,31 @@
         <v>2.75</v>
       </c>
       <c r="AU349">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV349">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW349">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX349">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY349">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ349">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA349">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB349">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC349">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD349">
         <v>1.78</v>
@@ -74073,7 +74076,7 @@
         <v>154</v>
       </c>
       <c r="P351" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74166,31 +74169,31 @@
         <v>2.37</v>
       </c>
       <c r="AU351">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV351">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW351">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX351">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY351">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ351">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA351">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB351">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC351">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD351">
         <v>2.7</v>
@@ -74372,31 +74375,31 @@
         <v>2.88</v>
       </c>
       <c r="AU352">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV352">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW352">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX352">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY352">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ352">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA352">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB352">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC352">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD352">
         <v>1.71</v>
@@ -74485,7 +74488,7 @@
         <v>148</v>
       </c>
       <c r="P353" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q353">
         <v>3.6</v>
@@ -74578,31 +74581,31 @@
         <v>2.57</v>
       </c>
       <c r="AU353">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV353">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AW353">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX353">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY353">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ353">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA353">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB353">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BC353">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD353">
         <v>2.35</v>
@@ -74784,31 +74787,31 @@
         <v>3.29</v>
       </c>
       <c r="AU354">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AV354">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW354">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX354">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY354">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ354">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA354">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB354">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC354">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD354">
         <v>1.1</v>
@@ -74848,6 +74851,418 @@
       </c>
       <c r="BP354">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>6689307</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>78</v>
+      </c>
+      <c r="H355" t="s">
+        <v>87</v>
+      </c>
+      <c r="I355">
+        <v>3</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>3</v>
+      </c>
+      <c r="L355">
+        <v>5</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>5</v>
+      </c>
+      <c r="O355" t="s">
+        <v>346</v>
+      </c>
+      <c r="P355" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q355">
+        <v>2.1</v>
+      </c>
+      <c r="R355">
+        <v>2.63</v>
+      </c>
+      <c r="S355">
+        <v>4.33</v>
+      </c>
+      <c r="T355">
+        <v>1.22</v>
+      </c>
+      <c r="U355">
+        <v>4</v>
+      </c>
+      <c r="V355">
+        <v>2</v>
+      </c>
+      <c r="W355">
+        <v>1.73</v>
+      </c>
+      <c r="X355">
+        <v>4.33</v>
+      </c>
+      <c r="Y355">
+        <v>1.2</v>
+      </c>
+      <c r="Z355">
+        <v>1.6</v>
+      </c>
+      <c r="AA355">
+        <v>4.75</v>
+      </c>
+      <c r="AB355">
+        <v>4.77</v>
+      </c>
+      <c r="AC355">
+        <v>1.03</v>
+      </c>
+      <c r="AD355">
+        <v>27</v>
+      </c>
+      <c r="AE355">
+        <v>1.11</v>
+      </c>
+      <c r="AF355">
+        <v>6</v>
+      </c>
+      <c r="AG355">
+        <v>1.35</v>
+      </c>
+      <c r="AH355">
+        <v>3.04</v>
+      </c>
+      <c r="AI355">
+        <v>1.44</v>
+      </c>
+      <c r="AJ355">
+        <v>2.63</v>
+      </c>
+      <c r="AK355">
+        <v>1.2</v>
+      </c>
+      <c r="AL355">
+        <v>1.22</v>
+      </c>
+      <c r="AM355">
+        <v>2.2</v>
+      </c>
+      <c r="AN355">
+        <v>1.82</v>
+      </c>
+      <c r="AO355">
+        <v>1.35</v>
+      </c>
+      <c r="AP355">
+        <v>1.89</v>
+      </c>
+      <c r="AQ355">
+        <v>1.28</v>
+      </c>
+      <c r="AR355">
+        <v>1.73</v>
+      </c>
+      <c r="AS355">
+        <v>1.22</v>
+      </c>
+      <c r="AT355">
+        <v>2.95</v>
+      </c>
+      <c r="AU355">
+        <v>15</v>
+      </c>
+      <c r="AV355">
+        <v>3</v>
+      </c>
+      <c r="AW355">
+        <v>4</v>
+      </c>
+      <c r="AX355">
+        <v>8</v>
+      </c>
+      <c r="AY355">
+        <v>19</v>
+      </c>
+      <c r="AZ355">
+        <v>11</v>
+      </c>
+      <c r="BA355">
+        <v>8</v>
+      </c>
+      <c r="BB355">
+        <v>6</v>
+      </c>
+      <c r="BC355">
+        <v>14</v>
+      </c>
+      <c r="BD355">
+        <v>1.43</v>
+      </c>
+      <c r="BE355">
+        <v>9</v>
+      </c>
+      <c r="BF355">
+        <v>3.35</v>
+      </c>
+      <c r="BG355">
+        <v>1.15</v>
+      </c>
+      <c r="BH355">
+        <v>4.5</v>
+      </c>
+      <c r="BI355">
+        <v>1.27</v>
+      </c>
+      <c r="BJ355">
+        <v>3.15</v>
+      </c>
+      <c r="BK355">
+        <v>1.49</v>
+      </c>
+      <c r="BL355">
+        <v>2.35</v>
+      </c>
+      <c r="BM355">
+        <v>1.83</v>
+      </c>
+      <c r="BN355">
+        <v>1.86</v>
+      </c>
+      <c r="BO355">
+        <v>2.28</v>
+      </c>
+      <c r="BP355">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>6689305</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>73</v>
+      </c>
+      <c r="H356" t="s">
+        <v>86</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>347</v>
+      </c>
+      <c r="P356" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q356">
+        <v>3.2</v>
+      </c>
+      <c r="R356">
+        <v>2.5</v>
+      </c>
+      <c r="S356">
+        <v>2.75</v>
+      </c>
+      <c r="T356">
+        <v>1.25</v>
+      </c>
+      <c r="U356">
+        <v>3.75</v>
+      </c>
+      <c r="V356">
+        <v>2.2</v>
+      </c>
+      <c r="W356">
+        <v>1.62</v>
+      </c>
+      <c r="X356">
+        <v>5</v>
+      </c>
+      <c r="Y356">
+        <v>1.17</v>
+      </c>
+      <c r="Z356">
+        <v>2.7</v>
+      </c>
+      <c r="AA356">
+        <v>3.75</v>
+      </c>
+      <c r="AB356">
+        <v>2.45</v>
+      </c>
+      <c r="AC356">
+        <v>1.03</v>
+      </c>
+      <c r="AD356">
+        <v>26</v>
+      </c>
+      <c r="AE356">
+        <v>1.13</v>
+      </c>
+      <c r="AF356">
+        <v>5.5</v>
+      </c>
+      <c r="AG356">
+        <v>1.48</v>
+      </c>
+      <c r="AH356">
+        <v>2.55</v>
+      </c>
+      <c r="AI356">
+        <v>1.4</v>
+      </c>
+      <c r="AJ356">
+        <v>2.75</v>
+      </c>
+      <c r="AK356">
+        <v>1.63</v>
+      </c>
+      <c r="AL356">
+        <v>1.3</v>
+      </c>
+      <c r="AM356">
+        <v>1.45</v>
+      </c>
+      <c r="AN356">
+        <v>1.69</v>
+      </c>
+      <c r="AO356">
+        <v>1.65</v>
+      </c>
+      <c r="AP356">
+        <v>1.76</v>
+      </c>
+      <c r="AQ356">
+        <v>1.56</v>
+      </c>
+      <c r="AR356">
+        <v>1.72</v>
+      </c>
+      <c r="AS356">
+        <v>1.45</v>
+      </c>
+      <c r="AT356">
+        <v>3.17</v>
+      </c>
+      <c r="AU356">
+        <v>9</v>
+      </c>
+      <c r="AV356">
+        <v>2</v>
+      </c>
+      <c r="AW356">
+        <v>3</v>
+      </c>
+      <c r="AX356">
+        <v>1</v>
+      </c>
+      <c r="AY356">
+        <v>12</v>
+      </c>
+      <c r="AZ356">
+        <v>3</v>
+      </c>
+      <c r="BA356">
+        <v>7</v>
+      </c>
+      <c r="BB356">
+        <v>3</v>
+      </c>
+      <c r="BC356">
+        <v>10</v>
+      </c>
+      <c r="BD356">
+        <v>1.98</v>
+      </c>
+      <c r="BE356">
+        <v>7.5</v>
+      </c>
+      <c r="BF356">
+        <v>2.06</v>
+      </c>
+      <c r="BG356">
+        <v>1.23</v>
+      </c>
+      <c r="BH356">
+        <v>3.4</v>
+      </c>
+      <c r="BI356">
+        <v>1.44</v>
+      </c>
+      <c r="BJ356">
+        <v>2.48</v>
+      </c>
+      <c r="BK356">
+        <v>1.64</v>
+      </c>
+      <c r="BL356">
+        <v>2.18</v>
+      </c>
+      <c r="BM356">
+        <v>2.03</v>
+      </c>
+      <c r="BN356">
+        <v>1.75</v>
+      </c>
+      <c r="BO356">
+        <v>2.5</v>
+      </c>
+      <c r="BP356">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="518">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1060,6 +1060,9 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['16', '45', '50', '59']</t>
+  </si>
+  <si>
     <t>['4', '36', '75']</t>
   </si>
   <si>
@@ -1563,6 +1566,9 @@
   <si>
     <t>['19', '35', '40', '55']</t>
   </si>
+  <si>
+    <t>['72', '77']</t>
+  </si>
 </sst>
 </file>
 
@@ -1923,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP356"/>
+  <dimension ref="A1:BP357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2182,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -2594,7 +2600,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -3624,7 +3630,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3705,7 +3711,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4242,7 +4248,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q12">
         <v>2.6</v>
@@ -4448,7 +4454,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4654,7 +4660,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4860,7 +4866,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q15">
         <v>1.62</v>
@@ -4938,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -5890,7 +5896,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -6302,7 +6308,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6383,7 +6389,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -6714,7 +6720,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q24">
         <v>1.73</v>
@@ -6920,7 +6926,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q25">
         <v>1.62</v>
@@ -7332,7 +7338,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7538,7 +7544,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7744,7 +7750,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -7950,7 +7956,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -8156,7 +8162,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -8362,7 +8368,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8774,7 +8780,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q34">
         <v>1.91</v>
@@ -8980,7 +8986,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -9061,7 +9067,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ35">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -9186,7 +9192,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -9598,7 +9604,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9882,7 +9888,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>1.56</v>
@@ -10216,7 +10222,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10628,7 +10634,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q43">
         <v>5.5</v>
@@ -11040,7 +11046,7 @@
         <v>126</v>
       </c>
       <c r="P45" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11864,7 +11870,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q49">
         <v>5.5</v>
@@ -12894,7 +12900,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q54">
         <v>2.4</v>
@@ -13384,7 +13390,7 @@
         <v>2.33</v>
       </c>
       <c r="AP56">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>1.28</v>
@@ -13924,7 +13930,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -14005,7 +14011,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ59">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>2.03</v>
@@ -14130,7 +14136,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14542,7 +14548,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q62">
         <v>7.5</v>
@@ -14748,7 +14754,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14954,7 +14960,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15984,7 +15990,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -16190,7 +16196,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16396,7 +16402,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16683,7 +16689,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ72">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.59</v>
@@ -16808,7 +16814,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -17220,7 +17226,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -17838,7 +17844,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -18044,7 +18050,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -18740,7 +18746,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ82">
         <v>1.11</v>
@@ -19280,7 +19286,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -19692,7 +19698,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19898,7 +19904,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -20104,7 +20110,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20722,7 +20728,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20803,7 +20809,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20928,7 +20934,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21546,7 +21552,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q96">
         <v>4.75</v>
@@ -21752,7 +21758,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -22448,7 +22454,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100">
         <v>0.72</v>
@@ -22576,7 +22582,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22782,7 +22788,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -23606,7 +23612,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23812,7 +23818,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -24636,7 +24642,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24842,7 +24848,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24923,7 +24929,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.11</v>
@@ -25048,7 +25054,7 @@
         <v>173</v>
       </c>
       <c r="P113" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q113">
         <v>1.57</v>
@@ -25460,7 +25466,7 @@
         <v>175</v>
       </c>
       <c r="P115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q115">
         <v>3.2</v>
@@ -25872,7 +25878,7 @@
         <v>177</v>
       </c>
       <c r="P117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q117">
         <v>2.5</v>
@@ -26078,7 +26084,7 @@
         <v>178</v>
       </c>
       <c r="P118" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -26568,7 +26574,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ120">
         <v>0.78</v>
@@ -26696,7 +26702,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -27108,7 +27114,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -27314,7 +27320,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -27932,7 +27938,7 @@
         <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28344,7 +28350,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28550,7 +28556,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28756,7 +28762,7 @@
         <v>188</v>
       </c>
       <c r="P131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -30198,7 +30204,7 @@
         <v>194</v>
       </c>
       <c r="P138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q138">
         <v>2.2</v>
@@ -30404,7 +30410,7 @@
         <v>195</v>
       </c>
       <c r="P139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q139">
         <v>1.67</v>
@@ -30482,7 +30488,7 @@
         <v>0.86</v>
       </c>
       <c r="AP139">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ139">
         <v>0.83</v>
@@ -30610,7 +30616,7 @@
         <v>196</v>
       </c>
       <c r="P140" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30816,7 +30822,7 @@
         <v>197</v>
       </c>
       <c r="P141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q141">
         <v>1.67</v>
@@ -30897,7 +30903,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ141">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -31228,7 +31234,7 @@
         <v>199</v>
       </c>
       <c r="P143" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -31640,7 +31646,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -32052,7 +32058,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q147">
         <v>8.5</v>
@@ -32876,7 +32882,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q151">
         <v>2.3</v>
@@ -33082,7 +33088,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -33906,7 +33912,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -34730,7 +34736,7 @@
         <v>212</v>
       </c>
       <c r="P160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q160">
         <v>11</v>
@@ -34936,7 +34942,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -35142,7 +35148,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q162">
         <v>4.5</v>
@@ -35223,7 +35229,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ162">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR162">
         <v>1.35</v>
@@ -35554,7 +35560,7 @@
         <v>215</v>
       </c>
       <c r="P164" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35966,7 +35972,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -36378,7 +36384,7 @@
         <v>218</v>
       </c>
       <c r="P168" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36868,7 +36874,7 @@
         <v>1.71</v>
       </c>
       <c r="AP170">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ170">
         <v>1.41</v>
@@ -37820,7 +37826,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q175">
         <v>2.25</v>
@@ -38232,7 +38238,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -38438,7 +38444,7 @@
         <v>223</v>
       </c>
       <c r="P178" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38516,7 +38522,7 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ178">
         <v>2.17</v>
@@ -38644,7 +38650,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38850,7 +38856,7 @@
         <v>225</v>
       </c>
       <c r="P180" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q180">
         <v>1.95</v>
@@ -39262,7 +39268,7 @@
         <v>227</v>
       </c>
       <c r="P182" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39468,7 +39474,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -39674,7 +39680,7 @@
         <v>228</v>
       </c>
       <c r="P184" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39880,7 +39886,7 @@
         <v>229</v>
       </c>
       <c r="P185" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -40292,7 +40298,7 @@
         <v>223</v>
       </c>
       <c r="P187" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40498,7 +40504,7 @@
         <v>231</v>
       </c>
       <c r="P188" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q188">
         <v>2.88</v>
@@ -40579,7 +40585,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ188">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR188">
         <v>2.01</v>
@@ -40704,7 +40710,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40910,7 +40916,7 @@
         <v>232</v>
       </c>
       <c r="P190" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -41322,7 +41328,7 @@
         <v>234</v>
       </c>
       <c r="P192" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q192">
         <v>1.83</v>
@@ -41528,7 +41534,7 @@
         <v>235</v>
       </c>
       <c r="P193" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q193">
         <v>3.1</v>
@@ -41940,7 +41946,7 @@
         <v>237</v>
       </c>
       <c r="P195" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -42558,7 +42564,7 @@
         <v>240</v>
       </c>
       <c r="P198" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q198">
         <v>1.91</v>
@@ -42636,7 +42642,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP198">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -43382,7 +43388,7 @@
         <v>242</v>
       </c>
       <c r="P202" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43794,7 +43800,7 @@
         <v>243</v>
       </c>
       <c r="P204" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43875,7 +43881,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ204">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR204">
         <v>1.75</v>
@@ -44206,7 +44212,7 @@
         <v>245</v>
       </c>
       <c r="P206" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44412,7 +44418,7 @@
         <v>246</v>
       </c>
       <c r="P207" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44618,7 +44624,7 @@
         <v>90</v>
       </c>
       <c r="P208" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45030,7 +45036,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q210">
         <v>6.5</v>
@@ -45648,7 +45654,7 @@
         <v>249</v>
       </c>
       <c r="P213" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45854,7 +45860,7 @@
         <v>250</v>
       </c>
       <c r="P214" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -46060,7 +46066,7 @@
         <v>251</v>
       </c>
       <c r="P215" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q215">
         <v>1.4</v>
@@ -46266,7 +46272,7 @@
         <v>252</v>
       </c>
       <c r="P216" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46550,7 +46556,7 @@
         <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ217">
         <v>1.18</v>
@@ -46678,7 +46684,7 @@
         <v>99</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -46884,7 +46890,7 @@
         <v>254</v>
       </c>
       <c r="P219" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -47090,7 +47096,7 @@
         <v>255</v>
       </c>
       <c r="P220" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47171,7 +47177,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ220">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR220">
         <v>1.63</v>
@@ -47502,7 +47508,7 @@
         <v>257</v>
       </c>
       <c r="P222" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q222">
         <v>3.5</v>
@@ -47708,7 +47714,7 @@
         <v>258</v>
       </c>
       <c r="P223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q223">
         <v>1.8</v>
@@ -47914,7 +47920,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -48326,7 +48332,7 @@
         <v>260</v>
       </c>
       <c r="P226" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q226">
         <v>2.2</v>
@@ -48738,7 +48744,7 @@
         <v>262</v>
       </c>
       <c r="P228" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48944,7 +48950,7 @@
         <v>263</v>
       </c>
       <c r="P229" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49356,7 +49362,7 @@
         <v>265</v>
       </c>
       <c r="P231" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q231">
         <v>2.3</v>
@@ -49562,7 +49568,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -50052,7 +50058,7 @@
         <v>0.73</v>
       </c>
       <c r="AP234">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ234">
         <v>0.78</v>
@@ -50386,7 +50392,7 @@
         <v>269</v>
       </c>
       <c r="P236" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50592,7 +50598,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50798,7 +50804,7 @@
         <v>270</v>
       </c>
       <c r="P238" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -51004,7 +51010,7 @@
         <v>271</v>
       </c>
       <c r="P239" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -51210,7 +51216,7 @@
         <v>272</v>
       </c>
       <c r="P240" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q240">
         <v>4.75</v>
@@ -51416,7 +51422,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51828,7 +51834,7 @@
         <v>274</v>
       </c>
       <c r="P243" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -52034,7 +52040,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52240,7 +52246,7 @@
         <v>276</v>
       </c>
       <c r="P245" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q245">
         <v>2.05</v>
@@ -52652,7 +52658,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q247">
         <v>4.75</v>
@@ -52858,7 +52864,7 @@
         <v>278</v>
       </c>
       <c r="P248" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q248">
         <v>4.33</v>
@@ -53064,7 +53070,7 @@
         <v>140</v>
       </c>
       <c r="P249" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q249">
         <v>2.38</v>
@@ -53476,7 +53482,7 @@
         <v>279</v>
       </c>
       <c r="P251" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q251">
         <v>1.57</v>
@@ -53554,7 +53560,7 @@
         <v>0.82</v>
       </c>
       <c r="AP251">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ251">
         <v>0.5600000000000001</v>
@@ -53682,7 +53688,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q252">
         <v>2.05</v>
@@ -54300,7 +54306,7 @@
         <v>282</v>
       </c>
       <c r="P255" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q255">
         <v>2.05</v>
@@ -54506,7 +54512,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -55124,7 +55130,7 @@
         <v>284</v>
       </c>
       <c r="P259" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55742,7 +55748,7 @@
         <v>286</v>
       </c>
       <c r="P262" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -56154,7 +56160,7 @@
         <v>288</v>
       </c>
       <c r="P264" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56566,7 +56572,7 @@
         <v>290</v>
       </c>
       <c r="P266" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q266">
         <v>4.33</v>
@@ -56772,7 +56778,7 @@
         <v>90</v>
       </c>
       <c r="P267" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56978,7 +56984,7 @@
         <v>291</v>
       </c>
       <c r="P268" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q268">
         <v>1.67</v>
@@ -57184,7 +57190,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -57596,7 +57602,7 @@
         <v>293</v>
       </c>
       <c r="P271" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57802,7 +57808,7 @@
         <v>205</v>
       </c>
       <c r="P272" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q272">
         <v>2.3</v>
@@ -58008,7 +58014,7 @@
         <v>294</v>
       </c>
       <c r="P273" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q273">
         <v>1.8</v>
@@ -58420,7 +58426,7 @@
         <v>90</v>
       </c>
       <c r="P275" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q275">
         <v>2.75</v>
@@ -58501,7 +58507,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ275">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR275">
         <v>1.68</v>
@@ -58832,7 +58838,7 @@
         <v>295</v>
       </c>
       <c r="P277" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59116,7 +59122,7 @@
         <v>2.15</v>
       </c>
       <c r="AP278">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ278">
         <v>2.24</v>
@@ -59244,7 +59250,7 @@
         <v>297</v>
       </c>
       <c r="P279" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q279">
         <v>2.4</v>
@@ -59450,7 +59456,7 @@
         <v>298</v>
       </c>
       <c r="P280" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q280">
         <v>2.05</v>
@@ -60149,7 +60155,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ283">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR283">
         <v>1.53</v>
@@ -60480,7 +60486,7 @@
         <v>301</v>
       </c>
       <c r="P285" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q285">
         <v>2.38</v>
@@ -60686,7 +60692,7 @@
         <v>302</v>
       </c>
       <c r="P286" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q286">
         <v>4.75</v>
@@ -61098,7 +61104,7 @@
         <v>304</v>
       </c>
       <c r="P288" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q288">
         <v>1.73</v>
@@ -61304,7 +61310,7 @@
         <v>305</v>
       </c>
       <c r="P289" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q289">
         <v>1.57</v>
@@ -61922,7 +61928,7 @@
         <v>307</v>
       </c>
       <c r="P292" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62128,7 +62134,7 @@
         <v>308</v>
       </c>
       <c r="P293" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q293">
         <v>1.8</v>
@@ -62206,7 +62212,7 @@
         <v>1.07</v>
       </c>
       <c r="AP293">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ293">
         <v>0.9399999999999999</v>
@@ -62746,7 +62752,7 @@
         <v>141</v>
       </c>
       <c r="P296" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q296">
         <v>2.4</v>
@@ -62952,7 +62958,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -63445,7 +63451,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ299">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR299">
         <v>1.33</v>
@@ -63982,7 +63988,7 @@
         <v>313</v>
       </c>
       <c r="P302" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q302">
         <v>1.67</v>
@@ -64188,7 +64194,7 @@
         <v>314</v>
       </c>
       <c r="P303" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q303">
         <v>1.36</v>
@@ -64266,7 +64272,7 @@
         <v>0.43</v>
       </c>
       <c r="AP303">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ303">
         <v>0.33</v>
@@ -64394,7 +64400,7 @@
         <v>315</v>
       </c>
       <c r="P304" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q304">
         <v>2.5</v>
@@ -64600,7 +64606,7 @@
         <v>316</v>
       </c>
       <c r="P305" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q305">
         <v>7.5</v>
@@ -64806,7 +64812,7 @@
         <v>317</v>
       </c>
       <c r="P306" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q306">
         <v>2.2</v>
@@ -65630,7 +65636,7 @@
         <v>319</v>
       </c>
       <c r="P310" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q310">
         <v>3</v>
@@ -65836,7 +65842,7 @@
         <v>90</v>
       </c>
       <c r="P311" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q311">
         <v>4.75</v>
@@ -66042,7 +66048,7 @@
         <v>320</v>
       </c>
       <c r="P312" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66248,7 +66254,7 @@
         <v>321</v>
       </c>
       <c r="P313" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q313">
         <v>6</v>
@@ -66741,7 +66747,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ315">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR315">
         <v>1.8</v>
@@ -67484,7 +67490,7 @@
         <v>326</v>
       </c>
       <c r="P319" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q319">
         <v>2.88</v>
@@ -67690,7 +67696,7 @@
         <v>327</v>
       </c>
       <c r="P320" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q320">
         <v>2.88</v>
@@ -67974,7 +67980,7 @@
         <v>0.88</v>
       </c>
       <c r="AP321">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ321">
         <v>1</v>
@@ -68102,7 +68108,7 @@
         <v>90</v>
       </c>
       <c r="P322" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68308,7 +68314,7 @@
         <v>90</v>
       </c>
       <c r="P323" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q323">
         <v>1.73</v>
@@ -68720,7 +68726,7 @@
         <v>265</v>
       </c>
       <c r="P325" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68926,7 +68932,7 @@
         <v>113</v>
       </c>
       <c r="P326" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q326">
         <v>3.5</v>
@@ -69132,7 +69138,7 @@
         <v>90</v>
       </c>
       <c r="P327" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -69750,7 +69756,7 @@
         <v>331</v>
       </c>
       <c r="P330" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q330">
         <v>2.75</v>
@@ -69956,7 +69962,7 @@
         <v>212</v>
       </c>
       <c r="P331" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -70574,7 +70580,7 @@
         <v>333</v>
       </c>
       <c r="P334" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q334">
         <v>1.8</v>
@@ -71192,7 +71198,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q337">
         <v>5.5</v>
@@ -71398,7 +71404,7 @@
         <v>336</v>
       </c>
       <c r="P338" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -72634,7 +72640,7 @@
         <v>340</v>
       </c>
       <c r="P344" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q344">
         <v>2.63</v>
@@ -73046,7 +73052,7 @@
         <v>342</v>
       </c>
       <c r="P346" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q346">
         <v>3.75</v>
@@ -73252,7 +73258,7 @@
         <v>90</v>
       </c>
       <c r="P347" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q347">
         <v>7</v>
@@ -73539,7 +73545,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ348">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR348">
         <v>1.73</v>
@@ -73664,7 +73670,7 @@
         <v>102</v>
       </c>
       <c r="P349" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q349">
         <v>3.1</v>
@@ -74076,7 +74082,7 @@
         <v>154</v>
       </c>
       <c r="P351" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74488,7 +74494,7 @@
         <v>148</v>
       </c>
       <c r="P353" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q353">
         <v>3.6</v>
@@ -75263,6 +75269,212 @@
       </c>
       <c r="BP356">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>6689309</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>83</v>
+      </c>
+      <c r="H357" t="s">
+        <v>84</v>
+      </c>
+      <c r="I357">
+        <v>2</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>2</v>
+      </c>
+      <c r="L357">
+        <v>4</v>
+      </c>
+      <c r="M357">
+        <v>2</v>
+      </c>
+      <c r="N357">
+        <v>6</v>
+      </c>
+      <c r="O357" t="s">
+        <v>348</v>
+      </c>
+      <c r="P357" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q357">
+        <v>1.91</v>
+      </c>
+      <c r="R357">
+        <v>2.88</v>
+      </c>
+      <c r="S357">
+        <v>4.75</v>
+      </c>
+      <c r="T357">
+        <v>1.17</v>
+      </c>
+      <c r="U357">
+        <v>5</v>
+      </c>
+      <c r="V357">
+        <v>1.8</v>
+      </c>
+      <c r="W357">
+        <v>1.91</v>
+      </c>
+      <c r="X357">
+        <v>3.5</v>
+      </c>
+      <c r="Y357">
+        <v>1.29</v>
+      </c>
+      <c r="Z357">
+        <v>1.45</v>
+      </c>
+      <c r="AA357">
+        <v>4.9</v>
+      </c>
+      <c r="AB357">
+        <v>5.4</v>
+      </c>
+      <c r="AC357">
+        <v>1.01</v>
+      </c>
+      <c r="AD357">
+        <v>45</v>
+      </c>
+      <c r="AE357">
+        <v>1.05</v>
+      </c>
+      <c r="AF357">
+        <v>9</v>
+      </c>
+      <c r="AG357">
+        <v>1.25</v>
+      </c>
+      <c r="AH357">
+        <v>3.75</v>
+      </c>
+      <c r="AI357">
+        <v>1.36</v>
+      </c>
+      <c r="AJ357">
+        <v>3</v>
+      </c>
+      <c r="AK357">
+        <v>1.15</v>
+      </c>
+      <c r="AL357">
+        <v>1.17</v>
+      </c>
+      <c r="AM357">
+        <v>2.7</v>
+      </c>
+      <c r="AN357">
+        <v>2.47</v>
+      </c>
+      <c r="AO357">
+        <v>1.41</v>
+      </c>
+      <c r="AP357">
+        <v>2.5</v>
+      </c>
+      <c r="AQ357">
+        <v>1.33</v>
+      </c>
+      <c r="AR357">
+        <v>2.37</v>
+      </c>
+      <c r="AS357">
+        <v>1.47</v>
+      </c>
+      <c r="AT357">
+        <v>3.84</v>
+      </c>
+      <c r="AU357">
+        <v>14</v>
+      </c>
+      <c r="AV357">
+        <v>7</v>
+      </c>
+      <c r="AW357">
+        <v>8</v>
+      </c>
+      <c r="AX357">
+        <v>3</v>
+      </c>
+      <c r="AY357">
+        <v>22</v>
+      </c>
+      <c r="AZ357">
+        <v>10</v>
+      </c>
+      <c r="BA357">
+        <v>8</v>
+      </c>
+      <c r="BB357">
+        <v>3</v>
+      </c>
+      <c r="BC357">
+        <v>11</v>
+      </c>
+      <c r="BD357">
+        <v>1.29</v>
+      </c>
+      <c r="BE357">
+        <v>11</v>
+      </c>
+      <c r="BF357">
+        <v>4.4</v>
+      </c>
+      <c r="BG357">
+        <v>1.08</v>
+      </c>
+      <c r="BH357">
+        <v>6.25</v>
+      </c>
+      <c r="BI357">
+        <v>1.17</v>
+      </c>
+      <c r="BJ357">
+        <v>4.2</v>
+      </c>
+      <c r="BK357">
+        <v>1.3</v>
+      </c>
+      <c r="BL357">
+        <v>3</v>
+      </c>
+      <c r="BM357">
+        <v>1.5</v>
+      </c>
+      <c r="BN357">
+        <v>2.3</v>
+      </c>
+      <c r="BO357">
+        <v>1.82</v>
+      </c>
+      <c r="BP357">
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="519">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1063,6 +1063,9 @@
     <t>['16', '45', '50', '59']</t>
   </si>
   <si>
+    <t>['12', '40', '58', '66']</t>
+  </si>
+  <si>
     <t>['4', '36', '75']</t>
   </si>
   <si>
@@ -1929,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP357"/>
+  <dimension ref="A1:BP358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2188,7 +2191,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -2600,7 +2603,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -3630,7 +3633,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4248,7 +4251,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q12">
         <v>2.6</v>
@@ -4454,7 +4457,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4660,7 +4663,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4866,7 +4869,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q15">
         <v>1.62</v>
@@ -5153,7 +5156,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ16">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5896,7 +5899,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5974,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ20">
         <v>2.17</v>
@@ -6308,7 +6311,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6720,7 +6723,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q24">
         <v>1.73</v>
@@ -6926,7 +6929,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q25">
         <v>1.62</v>
@@ -7338,7 +7341,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7544,7 +7547,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7750,7 +7753,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -7956,7 +7959,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -8162,7 +8165,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -8368,7 +8371,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8780,7 +8783,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q34">
         <v>1.91</v>
@@ -8986,7 +8989,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -9192,7 +9195,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -9604,7 +9607,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9682,7 +9685,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ38">
         <v>1.06</v>
@@ -10097,7 +10100,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ40">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -10222,7 +10225,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10634,7 +10637,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q43">
         <v>5.5</v>
@@ -11046,7 +11049,7 @@
         <v>126</v>
       </c>
       <c r="P45" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11870,7 +11873,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q49">
         <v>5.5</v>
@@ -12360,7 +12363,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -12900,7 +12903,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q54">
         <v>2.4</v>
@@ -13187,7 +13190,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ55">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.03</v>
@@ -13930,7 +13933,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -14136,7 +14139,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14548,7 +14551,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q62">
         <v>7.5</v>
@@ -14754,7 +14757,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14960,7 +14963,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15990,7 +15993,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -16196,7 +16199,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16402,7 +16405,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16814,7 +16817,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -17226,7 +17229,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -17716,7 +17719,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ77">
         <v>0.72</v>
@@ -17844,7 +17847,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -18050,7 +18053,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -19286,7 +19289,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -19698,7 +19701,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19904,7 +19907,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -20110,7 +20113,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20191,7 +20194,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ89">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -20728,7 +20731,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20806,7 +20809,7 @@
         <v>2.2</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20934,7 +20937,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21552,7 +21555,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q96">
         <v>4.75</v>
@@ -21758,7 +21761,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -22582,7 +22585,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22788,7 +22791,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22869,7 +22872,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ102">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.37</v>
@@ -23612,7 +23615,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23818,7 +23821,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -24642,7 +24645,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24848,7 +24851,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -25054,7 +25057,7 @@
         <v>173</v>
       </c>
       <c r="P113" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q113">
         <v>1.57</v>
@@ -25466,7 +25469,7 @@
         <v>175</v>
       </c>
       <c r="P115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q115">
         <v>3.2</v>
@@ -25544,7 +25547,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ115">
         <v>1.11</v>
@@ -25878,7 +25881,7 @@
         <v>177</v>
       </c>
       <c r="P117" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q117">
         <v>2.5</v>
@@ -26084,7 +26087,7 @@
         <v>178</v>
       </c>
       <c r="P118" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -26702,7 +26705,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -27114,7 +27117,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -27320,7 +27323,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -27938,7 +27941,7 @@
         <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28350,7 +28353,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28556,7 +28559,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28637,7 +28640,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ130">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR130">
         <v>1.73</v>
@@ -28762,7 +28765,7 @@
         <v>188</v>
       </c>
       <c r="P131" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -29873,7 +29876,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ136">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.67</v>
@@ -30204,7 +30207,7 @@
         <v>194</v>
       </c>
       <c r="P138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q138">
         <v>2.2</v>
@@ -30410,7 +30413,7 @@
         <v>195</v>
       </c>
       <c r="P139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q139">
         <v>1.67</v>
@@ -30616,7 +30619,7 @@
         <v>196</v>
       </c>
       <c r="P140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30822,7 +30825,7 @@
         <v>197</v>
       </c>
       <c r="P141" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q141">
         <v>1.67</v>
@@ -31234,7 +31237,7 @@
         <v>199</v>
       </c>
       <c r="P143" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -31646,7 +31649,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31724,7 +31727,7 @@
         <v>0.67</v>
       </c>
       <c r="AP145">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
         <v>1.17</v>
@@ -32058,7 +32061,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q147">
         <v>8.5</v>
@@ -32882,7 +32885,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q151">
         <v>2.3</v>
@@ -33088,7 +33091,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -33166,7 +33169,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ152">
         <v>1.83</v>
@@ -33912,7 +33915,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -34736,7 +34739,7 @@
         <v>212</v>
       </c>
       <c r="P160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q160">
         <v>11</v>
@@ -34942,7 +34945,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -35148,7 +35151,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q162">
         <v>4.5</v>
@@ -35560,7 +35563,7 @@
         <v>215</v>
       </c>
       <c r="P164" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35972,7 +35975,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -36384,7 +36387,7 @@
         <v>218</v>
       </c>
       <c r="P168" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36877,7 +36880,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ170">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR170">
         <v>2.23</v>
@@ -37080,7 +37083,7 @@
         <v>1.25</v>
       </c>
       <c r="AP171">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ171">
         <v>0.9399999999999999</v>
@@ -37495,7 +37498,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ173">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
         <v>1.36</v>
@@ -37826,7 +37829,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q175">
         <v>2.25</v>
@@ -38238,7 +38241,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -38444,7 +38447,7 @@
         <v>223</v>
       </c>
       <c r="P178" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38650,7 +38653,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38856,7 +38859,7 @@
         <v>225</v>
       </c>
       <c r="P180" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q180">
         <v>1.95</v>
@@ -39268,7 +39271,7 @@
         <v>227</v>
       </c>
       <c r="P182" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39474,7 +39477,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -39680,7 +39683,7 @@
         <v>228</v>
       </c>
       <c r="P184" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39886,7 +39889,7 @@
         <v>229</v>
       </c>
       <c r="P185" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -40298,7 +40301,7 @@
         <v>223</v>
       </c>
       <c r="P187" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40504,7 +40507,7 @@
         <v>231</v>
       </c>
       <c r="P188" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q188">
         <v>2.88</v>
@@ -40710,7 +40713,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40916,7 +40919,7 @@
         <v>232</v>
       </c>
       <c r="P190" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -41328,7 +41331,7 @@
         <v>234</v>
       </c>
       <c r="P192" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q192">
         <v>1.83</v>
@@ -41534,7 +41537,7 @@
         <v>235</v>
       </c>
       <c r="P193" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q193">
         <v>3.1</v>
@@ -41612,7 +41615,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ193">
         <v>0.78</v>
@@ -41946,7 +41949,7 @@
         <v>237</v>
       </c>
       <c r="P195" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -42027,7 +42030,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ195">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR195">
         <v>1.31</v>
@@ -42564,7 +42567,7 @@
         <v>240</v>
       </c>
       <c r="P198" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q198">
         <v>1.91</v>
@@ -43388,7 +43391,7 @@
         <v>242</v>
       </c>
       <c r="P202" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43800,7 +43803,7 @@
         <v>243</v>
       </c>
       <c r="P204" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -44212,7 +44215,7 @@
         <v>245</v>
       </c>
       <c r="P206" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44418,7 +44421,7 @@
         <v>246</v>
       </c>
       <c r="P207" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44624,7 +44627,7 @@
         <v>90</v>
       </c>
       <c r="P208" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45036,7 +45039,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q210">
         <v>6.5</v>
@@ -45654,7 +45657,7 @@
         <v>249</v>
       </c>
       <c r="P213" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45732,7 +45735,7 @@
         <v>0.2</v>
       </c>
       <c r="AP213">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ213">
         <v>0.33</v>
@@ -45860,7 +45863,7 @@
         <v>250</v>
       </c>
       <c r="P214" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -46066,7 +46069,7 @@
         <v>251</v>
       </c>
       <c r="P215" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q215">
         <v>1.4</v>
@@ -46272,7 +46275,7 @@
         <v>252</v>
       </c>
       <c r="P216" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46684,7 +46687,7 @@
         <v>99</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -46890,7 +46893,7 @@
         <v>254</v>
       </c>
       <c r="P219" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -46971,7 +46974,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ219">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR219">
         <v>1.23</v>
@@ -47096,7 +47099,7 @@
         <v>255</v>
       </c>
       <c r="P220" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47508,7 +47511,7 @@
         <v>257</v>
       </c>
       <c r="P222" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q222">
         <v>3.5</v>
@@ -47714,7 +47717,7 @@
         <v>258</v>
       </c>
       <c r="P223" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q223">
         <v>1.8</v>
@@ -47920,7 +47923,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -48332,7 +48335,7 @@
         <v>260</v>
       </c>
       <c r="P226" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q226">
         <v>2.2</v>
@@ -48744,7 +48747,7 @@
         <v>262</v>
       </c>
       <c r="P228" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48950,7 +48953,7 @@
         <v>263</v>
       </c>
       <c r="P229" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49362,7 +49365,7 @@
         <v>265</v>
       </c>
       <c r="P231" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q231">
         <v>2.3</v>
@@ -49568,7 +49571,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -50392,7 +50395,7 @@
         <v>269</v>
       </c>
       <c r="P236" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50598,7 +50601,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50804,7 +50807,7 @@
         <v>270</v>
       </c>
       <c r="P238" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -50885,7 +50888,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ238">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR238">
         <v>1.63</v>
@@ -51010,7 +51013,7 @@
         <v>271</v>
       </c>
       <c r="P239" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -51088,7 +51091,7 @@
         <v>1.18</v>
       </c>
       <c r="AP239">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ239">
         <v>1.18</v>
@@ -51216,7 +51219,7 @@
         <v>272</v>
       </c>
       <c r="P240" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q240">
         <v>4.75</v>
@@ -51422,7 +51425,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51834,7 +51837,7 @@
         <v>274</v>
       </c>
       <c r="P243" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -52040,7 +52043,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52246,7 +52249,7 @@
         <v>276</v>
       </c>
       <c r="P245" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q245">
         <v>2.05</v>
@@ -52658,7 +52661,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q247">
         <v>4.75</v>
@@ -52864,7 +52867,7 @@
         <v>278</v>
       </c>
       <c r="P248" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q248">
         <v>4.33</v>
@@ -52945,7 +52948,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ248">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR248">
         <v>1.43</v>
@@ -53070,7 +53073,7 @@
         <v>140</v>
       </c>
       <c r="P249" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q249">
         <v>2.38</v>
@@ -53482,7 +53485,7 @@
         <v>279</v>
       </c>
       <c r="P251" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q251">
         <v>1.57</v>
@@ -53688,7 +53691,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q252">
         <v>2.05</v>
@@ -54178,7 +54181,7 @@
         <v>0.67</v>
       </c>
       <c r="AP254">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ254">
         <v>0.78</v>
@@ -54306,7 +54309,7 @@
         <v>282</v>
       </c>
       <c r="P255" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q255">
         <v>2.05</v>
@@ -54512,7 +54515,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -55130,7 +55133,7 @@
         <v>284</v>
       </c>
       <c r="P259" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55748,7 +55751,7 @@
         <v>286</v>
       </c>
       <c r="P262" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -56160,7 +56163,7 @@
         <v>288</v>
       </c>
       <c r="P264" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56572,7 +56575,7 @@
         <v>290</v>
       </c>
       <c r="P266" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q266">
         <v>4.33</v>
@@ -56778,7 +56781,7 @@
         <v>90</v>
       </c>
       <c r="P267" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56984,7 +56987,7 @@
         <v>291</v>
       </c>
       <c r="P268" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q268">
         <v>1.67</v>
@@ -57065,7 +57068,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ268">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR268">
         <v>1.81</v>
@@ -57190,7 +57193,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -57602,7 +57605,7 @@
         <v>293</v>
       </c>
       <c r="P271" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57808,7 +57811,7 @@
         <v>205</v>
       </c>
       <c r="P272" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q272">
         <v>2.3</v>
@@ -57886,7 +57889,7 @@
         <v>0.75</v>
       </c>
       <c r="AP272">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ272">
         <v>0.5600000000000001</v>
@@ -58014,7 +58017,7 @@
         <v>294</v>
       </c>
       <c r="P273" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q273">
         <v>1.8</v>
@@ -58426,7 +58429,7 @@
         <v>90</v>
       </c>
       <c r="P275" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q275">
         <v>2.75</v>
@@ -58838,7 +58841,7 @@
         <v>295</v>
       </c>
       <c r="P277" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59250,7 +59253,7 @@
         <v>297</v>
       </c>
       <c r="P279" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q279">
         <v>2.4</v>
@@ -59456,7 +59459,7 @@
         <v>298</v>
       </c>
       <c r="P280" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q280">
         <v>2.05</v>
@@ -60486,7 +60489,7 @@
         <v>301</v>
       </c>
       <c r="P285" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q285">
         <v>2.38</v>
@@ -60692,7 +60695,7 @@
         <v>302</v>
       </c>
       <c r="P286" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q286">
         <v>4.75</v>
@@ -61104,7 +61107,7 @@
         <v>304</v>
       </c>
       <c r="P288" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q288">
         <v>1.73</v>
@@ -61310,7 +61313,7 @@
         <v>305</v>
       </c>
       <c r="P289" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q289">
         <v>1.57</v>
@@ -61928,7 +61931,7 @@
         <v>307</v>
       </c>
       <c r="P292" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62009,7 +62012,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ292">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR292">
         <v>1.45</v>
@@ -62134,7 +62137,7 @@
         <v>308</v>
       </c>
       <c r="P293" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q293">
         <v>1.8</v>
@@ -62752,7 +62755,7 @@
         <v>141</v>
       </c>
       <c r="P296" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q296">
         <v>2.4</v>
@@ -62958,7 +62961,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -63988,7 +63991,7 @@
         <v>313</v>
       </c>
       <c r="P302" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q302">
         <v>1.67</v>
@@ -64194,7 +64197,7 @@
         <v>314</v>
       </c>
       <c r="P303" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q303">
         <v>1.36</v>
@@ -64400,7 +64403,7 @@
         <v>315</v>
       </c>
       <c r="P304" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q304">
         <v>2.5</v>
@@ -64481,7 +64484,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ304">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR304">
         <v>1.67</v>
@@ -64606,7 +64609,7 @@
         <v>316</v>
       </c>
       <c r="P305" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q305">
         <v>7.5</v>
@@ -64684,7 +64687,7 @@
         <v>2.07</v>
       </c>
       <c r="AP305">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ305">
         <v>2.24</v>
@@ -64812,7 +64815,7 @@
         <v>317</v>
       </c>
       <c r="P306" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q306">
         <v>2.2</v>
@@ -65636,7 +65639,7 @@
         <v>319</v>
       </c>
       <c r="P310" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q310">
         <v>3</v>
@@ -65842,7 +65845,7 @@
         <v>90</v>
       </c>
       <c r="P311" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q311">
         <v>4.75</v>
@@ -66048,7 +66051,7 @@
         <v>320</v>
       </c>
       <c r="P312" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66254,7 +66257,7 @@
         <v>321</v>
       </c>
       <c r="P313" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q313">
         <v>6</v>
@@ -67490,7 +67493,7 @@
         <v>326</v>
       </c>
       <c r="P319" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q319">
         <v>2.88</v>
@@ -67696,7 +67699,7 @@
         <v>327</v>
       </c>
       <c r="P320" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q320">
         <v>2.88</v>
@@ -67777,7 +67780,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ320">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR320">
         <v>1.51</v>
@@ -68108,7 +68111,7 @@
         <v>90</v>
       </c>
       <c r="P322" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68314,7 +68317,7 @@
         <v>90</v>
       </c>
       <c r="P323" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q323">
         <v>1.73</v>
@@ -68726,7 +68729,7 @@
         <v>265</v>
       </c>
       <c r="P325" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68932,7 +68935,7 @@
         <v>113</v>
       </c>
       <c r="P326" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q326">
         <v>3.5</v>
@@ -69138,7 +69141,7 @@
         <v>90</v>
       </c>
       <c r="P327" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -69756,7 +69759,7 @@
         <v>331</v>
       </c>
       <c r="P330" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q330">
         <v>2.75</v>
@@ -69834,7 +69837,7 @@
         <v>1.44</v>
       </c>
       <c r="AP330">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ330">
         <v>1.28</v>
@@ -69962,7 +69965,7 @@
         <v>212</v>
       </c>
       <c r="P331" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -70580,7 +70583,7 @@
         <v>333</v>
       </c>
       <c r="P334" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q334">
         <v>1.8</v>
@@ -71070,7 +71073,7 @@
         <v>0.93</v>
       </c>
       <c r="AP336">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ336">
         <v>1</v>
@@ -71198,7 +71201,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q337">
         <v>5.5</v>
@@ -71404,7 +71407,7 @@
         <v>336</v>
       </c>
       <c r="P338" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -72640,7 +72643,7 @@
         <v>340</v>
       </c>
       <c r="P344" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q344">
         <v>2.63</v>
@@ -73052,7 +73055,7 @@
         <v>342</v>
       </c>
       <c r="P346" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q346">
         <v>3.75</v>
@@ -73258,7 +73261,7 @@
         <v>90</v>
       </c>
       <c r="P347" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q347">
         <v>7</v>
@@ -73670,7 +73673,7 @@
         <v>102</v>
       </c>
       <c r="P349" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q349">
         <v>3.1</v>
@@ -74082,7 +74085,7 @@
         <v>154</v>
       </c>
       <c r="P351" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74494,7 +74497,7 @@
         <v>148</v>
       </c>
       <c r="P353" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q353">
         <v>3.6</v>
@@ -75318,7 +75321,7 @@
         <v>348</v>
       </c>
       <c r="P357" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q357">
         <v>1.91</v>
@@ -75475,6 +75478,212 @@
       </c>
       <c r="BP357">
         <v>1.87</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>6689308</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45418.66666666666</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>88</v>
+      </c>
+      <c r="H358" t="s">
+        <v>79</v>
+      </c>
+      <c r="I358">
+        <v>2</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <v>4</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>4</v>
+      </c>
+      <c r="O358" t="s">
+        <v>349</v>
+      </c>
+      <c r="P358" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q358">
+        <v>2.88</v>
+      </c>
+      <c r="R358">
+        <v>2.4</v>
+      </c>
+      <c r="S358">
+        <v>3.2</v>
+      </c>
+      <c r="T358">
+        <v>1.29</v>
+      </c>
+      <c r="U358">
+        <v>3.5</v>
+      </c>
+      <c r="V358">
+        <v>2.25</v>
+      </c>
+      <c r="W358">
+        <v>1.57</v>
+      </c>
+      <c r="X358">
+        <v>5.5</v>
+      </c>
+      <c r="Y358">
+        <v>1.14</v>
+      </c>
+      <c r="Z358">
+        <v>2.49</v>
+      </c>
+      <c r="AA358">
+        <v>3.65</v>
+      </c>
+      <c r="AB358">
+        <v>2.49</v>
+      </c>
+      <c r="AC358">
+        <v>1.01</v>
+      </c>
+      <c r="AD358">
+        <v>13</v>
+      </c>
+      <c r="AE358">
+        <v>1.17</v>
+      </c>
+      <c r="AF358">
+        <v>5</v>
+      </c>
+      <c r="AG358">
+        <v>1.5</v>
+      </c>
+      <c r="AH358">
+        <v>2.55</v>
+      </c>
+      <c r="AI358">
+        <v>1.44</v>
+      </c>
+      <c r="AJ358">
+        <v>2.63</v>
+      </c>
+      <c r="AK358">
+        <v>1.49</v>
+      </c>
+      <c r="AL358">
+        <v>1.27</v>
+      </c>
+      <c r="AM358">
+        <v>1.63</v>
+      </c>
+      <c r="AN358">
+        <v>1.29</v>
+      </c>
+      <c r="AO358">
+        <v>1.41</v>
+      </c>
+      <c r="AP358">
+        <v>1.39</v>
+      </c>
+      <c r="AQ358">
+        <v>1.33</v>
+      </c>
+      <c r="AR358">
+        <v>1.41</v>
+      </c>
+      <c r="AS358">
+        <v>1.29</v>
+      </c>
+      <c r="AT358">
+        <v>2.7</v>
+      </c>
+      <c r="AU358">
+        <v>11</v>
+      </c>
+      <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>4</v>
+      </c>
+      <c r="AX358">
+        <v>2</v>
+      </c>
+      <c r="AY358">
+        <v>15</v>
+      </c>
+      <c r="AZ358">
+        <v>5</v>
+      </c>
+      <c r="BA358">
+        <v>6</v>
+      </c>
+      <c r="BB358">
+        <v>2</v>
+      </c>
+      <c r="BC358">
+        <v>8</v>
+      </c>
+      <c r="BD358">
+        <v>1.65</v>
+      </c>
+      <c r="BE358">
+        <v>8.5</v>
+      </c>
+      <c r="BF358">
+        <v>2.55</v>
+      </c>
+      <c r="BG358">
+        <v>1.07</v>
+      </c>
+      <c r="BH358">
+        <v>6.5</v>
+      </c>
+      <c r="BI358">
+        <v>1.15</v>
+      </c>
+      <c r="BJ358">
+        <v>4.4</v>
+      </c>
+      <c r="BK358">
+        <v>1.27</v>
+      </c>
+      <c r="BL358">
+        <v>3.15</v>
+      </c>
+      <c r="BM358">
+        <v>1.48</v>
+      </c>
+      <c r="BN358">
+        <v>2.38</v>
+      </c>
+      <c r="BO358">
+        <v>1.77</v>
+      </c>
+      <c r="BP358">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -75850,31 +75850,31 @@
         <v>3.49</v>
       </c>
       <c r="AU359">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV359">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AW359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX359">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY359">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ359">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA359">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BB359">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BC359">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD359">
         <v>4.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="527">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1956,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP366"/>
+  <dimension ref="A1:BP367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1.06</v>
@@ -6004,7 +6004,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ20">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.72</v>
@@ -11151,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>0.95</v>
@@ -11978,7 +11978,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR49">
         <v>1.97</v>
@@ -14862,7 +14862,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR63">
         <v>1.39</v>
@@ -15477,7 +15477,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.11</v>
@@ -17537,7 +17537,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>0.89</v>
@@ -20012,7 +20012,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ88">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -22687,7 +22687,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>2.28</v>
@@ -24132,7 +24132,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ108">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR108">
         <v>1.86</v>
@@ -25365,7 +25365,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
         <v>0.53</v>
@@ -28252,7 +28252,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR128">
         <v>1.56</v>
@@ -31342,7 +31342,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ143">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -32575,7 +32575,7 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ149">
         <v>1.28</v>
@@ -34017,7 +34017,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ156">
         <v>1.17</v>
@@ -34226,7 +34226,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ157">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR157">
         <v>1.7</v>
@@ -38552,7 +38552,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ178">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR178">
         <v>2.29</v>
@@ -39785,7 +39785,7 @@
         <v>1.56</v>
       </c>
       <c r="AP184">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ184">
         <v>1.56</v>
@@ -42466,7 +42466,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ197">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -43905,7 +43905,7 @@
         <v>1.8</v>
       </c>
       <c r="AP204">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ204">
         <v>1.33</v>
@@ -45144,7 +45144,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ210">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR210">
         <v>1.27</v>
@@ -48643,7 +48643,7 @@
         <v>1.55</v>
       </c>
       <c r="AP227">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ227">
         <v>1.28</v>
@@ -50706,7 +50706,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ237">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR237">
         <v>1.29</v>
@@ -51530,7 +51530,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ241">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR241">
         <v>1.31</v>
@@ -53793,7 +53793,7 @@
         <v>0.58</v>
       </c>
       <c r="AP252">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ252">
         <v>0.83</v>
@@ -57298,7 +57298,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ269">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR269">
         <v>1.16</v>
@@ -57501,7 +57501,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ270">
         <v>1.11</v>
@@ -62448,7 +62448,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ294">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR294">
         <v>1.88</v>
@@ -65950,7 +65950,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ311">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR311">
         <v>1.82</v>
@@ -66153,7 +66153,7 @@
         <v>2</v>
       </c>
       <c r="AP312">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ312">
         <v>1.83</v>
@@ -69246,7 +69246,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ327">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR327">
         <v>1.35</v>
@@ -70685,7 +70685,7 @@
         <v>0.38</v>
       </c>
       <c r="AP334">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ334">
         <v>0.32</v>
@@ -71921,7 +71921,7 @@
         <v>0.76</v>
       </c>
       <c r="AP340">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ340">
         <v>0.74</v>
@@ -73160,7 +73160,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ346">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR346">
         <v>1.97</v>
@@ -75850,31 +75850,31 @@
         <v>3.49</v>
       </c>
       <c r="AU359">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV359">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW359">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX359">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY359">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ359">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA359">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB359">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC359">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD359">
         <v>4.4</v>
@@ -77356,6 +77356,212 @@
       </c>
       <c r="BP366">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>6689317</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F367">
+        <v>37</v>
+      </c>
+      <c r="G367" t="s">
+        <v>79</v>
+      </c>
+      <c r="H367" t="s">
+        <v>71</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367">
+        <v>1</v>
+      </c>
+      <c r="O367" t="s">
+        <v>90</v>
+      </c>
+      <c r="P367" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q367">
+        <v>6</v>
+      </c>
+      <c r="R367">
+        <v>2.75</v>
+      </c>
+      <c r="S367">
+        <v>1.8</v>
+      </c>
+      <c r="T367">
+        <v>1.2</v>
+      </c>
+      <c r="U367">
+        <v>4.33</v>
+      </c>
+      <c r="V367">
+        <v>1.91</v>
+      </c>
+      <c r="W367">
+        <v>1.8</v>
+      </c>
+      <c r="X367">
+        <v>4</v>
+      </c>
+      <c r="Y367">
+        <v>1.22</v>
+      </c>
+      <c r="Z367">
+        <v>4.98</v>
+      </c>
+      <c r="AA367">
+        <v>4.6</v>
+      </c>
+      <c r="AB367">
+        <v>1.58</v>
+      </c>
+      <c r="AC367">
+        <v>1.01</v>
+      </c>
+      <c r="AD367">
+        <v>31</v>
+      </c>
+      <c r="AE367">
+        <v>1.11</v>
+      </c>
+      <c r="AF367">
+        <v>6.8</v>
+      </c>
+      <c r="AG367">
+        <v>1.37</v>
+      </c>
+      <c r="AH367">
+        <v>2.94</v>
+      </c>
+      <c r="AI367">
+        <v>1.57</v>
+      </c>
+      <c r="AJ367">
+        <v>2.25</v>
+      </c>
+      <c r="AK367">
+        <v>2.75</v>
+      </c>
+      <c r="AL367">
+        <v>1.17</v>
+      </c>
+      <c r="AM367">
+        <v>1.12</v>
+      </c>
+      <c r="AN367">
+        <v>1.76</v>
+      </c>
+      <c r="AO367">
+        <v>2.17</v>
+      </c>
+      <c r="AP367">
+        <v>1.67</v>
+      </c>
+      <c r="AQ367">
+        <v>2.21</v>
+      </c>
+      <c r="AR367">
+        <v>1.78</v>
+      </c>
+      <c r="AS367">
+        <v>1.65</v>
+      </c>
+      <c r="AT367">
+        <v>3.43</v>
+      </c>
+      <c r="AU367">
+        <v>3</v>
+      </c>
+      <c r="AV367">
+        <v>6</v>
+      </c>
+      <c r="AW367">
+        <v>6</v>
+      </c>
+      <c r="AX367">
+        <v>3</v>
+      </c>
+      <c r="AY367">
+        <v>9</v>
+      </c>
+      <c r="AZ367">
+        <v>9</v>
+      </c>
+      <c r="BA367">
+        <v>4</v>
+      </c>
+      <c r="BB367">
+        <v>7</v>
+      </c>
+      <c r="BC367">
+        <v>11</v>
+      </c>
+      <c r="BD367">
+        <v>4.3</v>
+      </c>
+      <c r="BE367">
+        <v>10.5</v>
+      </c>
+      <c r="BF367">
+        <v>1.3</v>
+      </c>
+      <c r="BG367">
+        <v>1.1</v>
+      </c>
+      <c r="BH367">
+        <v>5.6</v>
+      </c>
+      <c r="BI367">
+        <v>1.19</v>
+      </c>
+      <c r="BJ367">
+        <v>3.85</v>
+      </c>
+      <c r="BK367">
+        <v>1.34</v>
+      </c>
+      <c r="BL367">
+        <v>2.8</v>
+      </c>
+      <c r="BM367">
+        <v>1.58</v>
+      </c>
+      <c r="BN367">
+        <v>2.16</v>
+      </c>
+      <c r="BO367">
+        <v>1.94</v>
+      </c>
+      <c r="BP367">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="530">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1602,6 +1602,9 @@
   <si>
     <t>['2', '23', '48']</t>
   </si>
+  <si>
+    <t>['51', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1962,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP368"/>
+  <dimension ref="A1:BP369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2302,7 +2305,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ2">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -5183,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -7864,7 +7867,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ29">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR29">
         <v>0.77</v>
@@ -10539,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ42">
         <v>0.32</v>
@@ -10748,7 +10751,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ43">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -14662,7 +14665,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ62">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR62">
         <v>1.37</v>
@@ -15895,7 +15898,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ68">
         <v>1.79</v>
@@ -18576,7 +18579,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ81">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR81">
         <v>1.95</v>
@@ -20633,7 +20636,7 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ91">
         <v>0.83</v>
@@ -22696,7 +22699,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -24753,7 +24756,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ111">
         <v>1.28</v>
@@ -26816,7 +26819,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -28461,7 +28464,7 @@
         <v>1.17</v>
       </c>
       <c r="AP129">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ129">
         <v>1.56</v>
@@ -32378,7 +32381,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ148">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR148">
         <v>1.68</v>
@@ -32993,7 +32996,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ151">
         <v>1.28</v>
@@ -34850,7 +34853,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ160">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR160">
         <v>1.31</v>
@@ -35053,7 +35056,7 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -37731,7 +37734,7 @@
         <v>2</v>
       </c>
       <c r="AP174">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ174">
         <v>1.11</v>
@@ -40412,7 +40415,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR187">
         <v>1.73</v>
@@ -42263,7 +42266,7 @@
         <v>1.44</v>
       </c>
       <c r="AP196">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ196">
         <v>1.17</v>
@@ -43502,7 +43505,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ202">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR202">
         <v>1.86</v>
@@ -46383,7 +46386,7 @@
         <v>0.78</v>
       </c>
       <c r="AP216">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ216">
         <v>0.89</v>
@@ -49064,7 +49067,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ229">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -49885,7 +49888,7 @@
         <v>1.09</v>
       </c>
       <c r="AP233">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ233">
         <v>0.95</v>
@@ -52357,7 +52360,7 @@
         <v>1.17</v>
       </c>
       <c r="AP245">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ245">
         <v>1.06</v>
@@ -54626,7 +54629,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ256">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR256">
         <v>1.33</v>
@@ -56065,7 +56068,7 @@
         <v>1</v>
       </c>
       <c r="AP263">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ263">
         <v>1.11</v>
@@ -59158,7 +59161,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ278">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR278">
         <v>2.37</v>
@@ -61421,7 +61424,7 @@
         <v>0.71</v>
       </c>
       <c r="AP289">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ289">
         <v>0.53</v>
@@ -64720,7 +64723,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ305">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR305">
         <v>1.37</v>
@@ -66571,7 +66574,7 @@
         <v>0.67</v>
       </c>
       <c r="AP314">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ314">
         <v>0.72</v>
@@ -71312,7 +71315,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ337">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR337">
         <v>1.77</v>
@@ -73163,7 +73166,7 @@
         <v>2.12</v>
       </c>
       <c r="AP346">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ346">
         <v>2.21</v>
@@ -73372,7 +73375,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ347">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR347">
         <v>1.33</v>
@@ -75844,7 +75847,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ359">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AR359">
         <v>1.5</v>
@@ -77077,7 +77080,7 @@
         <v>0.78</v>
       </c>
       <c r="AP365">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ365">
         <v>0.74</v>
@@ -77774,6 +77777,212 @@
       </c>
       <c r="BP368">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>6689291</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45426.66666666666</v>
+      </c>
+      <c r="F369">
+        <v>34</v>
+      </c>
+      <c r="G369" t="s">
+        <v>84</v>
+      </c>
+      <c r="H369" t="s">
+        <v>85</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>2</v>
+      </c>
+      <c r="N369">
+        <v>2</v>
+      </c>
+      <c r="O369" t="s">
+        <v>90</v>
+      </c>
+      <c r="P369" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q369">
+        <v>5</v>
+      </c>
+      <c r="R369">
+        <v>2.88</v>
+      </c>
+      <c r="S369">
+        <v>1.83</v>
+      </c>
+      <c r="T369">
+        <v>1.18</v>
+      </c>
+      <c r="U369">
+        <v>4.5</v>
+      </c>
+      <c r="V369">
+        <v>1.83</v>
+      </c>
+      <c r="W369">
+        <v>1.83</v>
+      </c>
+      <c r="X369">
+        <v>3.75</v>
+      </c>
+      <c r="Y369">
+        <v>1.25</v>
+      </c>
+      <c r="Z369">
+        <v>5</v>
+      </c>
+      <c r="AA369">
+        <v>4.95</v>
+      </c>
+      <c r="AB369">
+        <v>1.37</v>
+      </c>
+      <c r="AC369">
+        <v>1.02</v>
+      </c>
+      <c r="AD369">
+        <v>39</v>
+      </c>
+      <c r="AE369">
+        <v>1.09</v>
+      </c>
+      <c r="AF369">
+        <v>8.4</v>
+      </c>
+      <c r="AG369">
+        <v>1.3</v>
+      </c>
+      <c r="AH369">
+        <v>3.33</v>
+      </c>
+      <c r="AI369">
+        <v>1.44</v>
+      </c>
+      <c r="AJ369">
+        <v>2.63</v>
+      </c>
+      <c r="AK369">
+        <v>2.9</v>
+      </c>
+      <c r="AL369">
+        <v>1.14</v>
+      </c>
+      <c r="AM369">
+        <v>1.13</v>
+      </c>
+      <c r="AN369">
+        <v>2.17</v>
+      </c>
+      <c r="AO369">
+        <v>2.28</v>
+      </c>
+      <c r="AP369">
+        <v>2.05</v>
+      </c>
+      <c r="AQ369">
+        <v>2.32</v>
+      </c>
+      <c r="AR369">
+        <v>1.97</v>
+      </c>
+      <c r="AS369">
+        <v>2</v>
+      </c>
+      <c r="AT369">
+        <v>3.97</v>
+      </c>
+      <c r="AU369">
+        <v>6</v>
+      </c>
+      <c r="AV369">
+        <v>6</v>
+      </c>
+      <c r="AW369">
+        <v>3</v>
+      </c>
+      <c r="AX369">
+        <v>2</v>
+      </c>
+      <c r="AY369">
+        <v>9</v>
+      </c>
+      <c r="AZ369">
+        <v>8</v>
+      </c>
+      <c r="BA369">
+        <v>7</v>
+      </c>
+      <c r="BB369">
+        <v>4</v>
+      </c>
+      <c r="BC369">
+        <v>11</v>
+      </c>
+      <c r="BD369">
+        <v>3.45</v>
+      </c>
+      <c r="BE369">
+        <v>7.5</v>
+      </c>
+      <c r="BF369">
+        <v>1.35</v>
+      </c>
+      <c r="BG369">
+        <v>1.19</v>
+      </c>
+      <c r="BH369">
+        <v>4.1</v>
+      </c>
+      <c r="BI369">
+        <v>1.33</v>
+      </c>
+      <c r="BJ369">
+        <v>2.95</v>
+      </c>
+      <c r="BK369">
+        <v>1.54</v>
+      </c>
+      <c r="BL369">
+        <v>2.3</v>
+      </c>
+      <c r="BM369">
+        <v>1.84</v>
+      </c>
+      <c r="BN369">
+        <v>1.84</v>
+      </c>
+      <c r="BO369">
+        <v>2.25</v>
+      </c>
+      <c r="BP369">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="533">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1084,6 +1084,9 @@
     <t>['12', '85', '88']</t>
   </si>
   <si>
+    <t>['31', '57', '84']</t>
+  </si>
+  <si>
     <t>['4', '36', '75']</t>
   </si>
   <si>
@@ -1605,6 +1608,12 @@
   <si>
     <t>['51', '90+1']</t>
   </si>
+  <si>
+    <t>['34', '64']</t>
+  </si>
+  <si>
+    <t>['49', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1965,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP369"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2224,7 +2233,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -2636,7 +2645,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2920,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>0.53</v>
@@ -3666,7 +3675,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4156,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ11">
         <v>1.06</v>
@@ -4284,7 +4293,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q12">
         <v>2.6</v>
@@ -4490,7 +4499,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4696,7 +4705,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4902,7 +4911,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q15">
         <v>1.62</v>
@@ -5395,7 +5404,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5807,7 +5816,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5932,7 +5941,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -6344,7 +6353,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6756,7 +6765,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q24">
         <v>1.73</v>
@@ -6834,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ24">
         <v>0.72</v>
@@ -6962,7 +6971,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q25">
         <v>1.62</v>
@@ -7374,7 +7383,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -7452,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>1.28</v>
@@ -7580,7 +7589,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7786,7 +7795,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -7992,7 +8001,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -8198,7 +8207,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -8404,7 +8413,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8816,7 +8825,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q34">
         <v>1.91</v>
@@ -9022,7 +9031,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -9228,7 +9237,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -9512,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR37">
         <v>2.87</v>
@@ -9640,7 +9649,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -10258,7 +10267,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10670,7 +10679,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q43">
         <v>5.5</v>
@@ -11082,7 +11091,7 @@
         <v>126</v>
       </c>
       <c r="P45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11160,7 +11169,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ45">
         <v>0.95</v>
@@ -11781,7 +11790,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR48">
         <v>1.48</v>
@@ -11906,7 +11915,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q49">
         <v>5.5</v>
@@ -12936,7 +12945,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q54">
         <v>2.4</v>
@@ -13838,7 +13847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13966,7 +13975,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -14172,7 +14181,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14253,7 +14262,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.08</v>
@@ -14584,7 +14593,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q62">
         <v>7.5</v>
@@ -14790,7 +14799,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14996,7 +15005,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15486,7 +15495,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ66">
         <v>1.11</v>
@@ -16026,7 +16035,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -16232,7 +16241,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16313,7 +16322,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ70">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR70">
         <v>1.08</v>
@@ -16438,7 +16447,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16850,7 +16859,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16931,7 +16940,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ73">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR73">
         <v>1.13</v>
@@ -17262,7 +17271,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -17546,7 +17555,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ76">
         <v>0.89</v>
@@ -17880,7 +17889,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17958,7 +17967,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.79</v>
@@ -18086,7 +18095,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -18167,7 +18176,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -19322,7 +19331,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -19734,7 +19743,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19940,7 +19949,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -20146,7 +20155,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20764,7 +20773,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20970,7 +20979,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21588,7 +21597,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q96">
         <v>4.75</v>
@@ -21669,7 +21678,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR96">
         <v>1.03</v>
@@ -21794,7 +21803,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -22284,7 +22293,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ99">
         <v>0.83</v>
@@ -22618,7 +22627,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q101">
         <v>4.75</v>
@@ -22696,7 +22705,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ101">
         <v>2.32</v>
@@ -22824,7 +22833,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -23648,7 +23657,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23854,7 +23863,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -24678,7 +24687,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24759,7 +24768,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ111">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR111">
         <v>2.14</v>
@@ -24884,7 +24893,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -25090,7 +25099,7 @@
         <v>173</v>
       </c>
       <c r="P113" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q113">
         <v>1.57</v>
@@ -25374,7 +25383,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ114">
         <v>0.53</v>
@@ -25502,7 +25511,7 @@
         <v>175</v>
       </c>
       <c r="P115" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q115">
         <v>3.2</v>
@@ -25789,7 +25798,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
         <v>1.26</v>
@@ -25914,7 +25923,7 @@
         <v>177</v>
       </c>
       <c r="P117" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q117">
         <v>2.5</v>
@@ -26120,7 +26129,7 @@
         <v>178</v>
       </c>
       <c r="P118" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -26404,7 +26413,7 @@
         <v>0</v>
       </c>
       <c r="AP119">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ119">
         <v>0.32</v>
@@ -26738,7 +26747,7 @@
         <v>180</v>
       </c>
       <c r="P121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -27150,7 +27159,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -27356,7 +27365,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q124">
         <v>3.6</v>
@@ -27849,7 +27858,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ126">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR126">
         <v>1.69</v>
@@ -27974,7 +27983,7 @@
         <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -28386,7 +28395,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -28592,7 +28601,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28798,7 +28807,7 @@
         <v>188</v>
       </c>
       <c r="P131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -30240,7 +30249,7 @@
         <v>194</v>
       </c>
       <c r="P138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q138">
         <v>2.2</v>
@@ -30446,7 +30455,7 @@
         <v>195</v>
       </c>
       <c r="P139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q139">
         <v>1.67</v>
@@ -30652,7 +30661,7 @@
         <v>196</v>
       </c>
       <c r="P140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30858,7 +30867,7 @@
         <v>197</v>
       </c>
       <c r="P141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q141">
         <v>1.67</v>
@@ -31270,7 +31279,7 @@
         <v>199</v>
       </c>
       <c r="P143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -31554,7 +31563,7 @@
         <v>1.17</v>
       </c>
       <c r="AP144">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
         <v>0.89</v>
@@ -31682,7 +31691,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -32094,7 +32103,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q147">
         <v>8.5</v>
@@ -32584,10 +32593,10 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR149">
         <v>1.69</v>
@@ -32793,7 +32802,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32918,7 +32927,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q151">
         <v>2.3</v>
@@ -33124,7 +33133,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -33820,7 +33829,7 @@
         <v>0.57</v>
       </c>
       <c r="AP155">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ155">
         <v>0.74</v>
@@ -33948,7 +33957,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -34026,7 +34035,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ156">
         <v>1.17</v>
@@ -34441,7 +34450,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR158">
         <v>1.8</v>
@@ -34772,7 +34781,7 @@
         <v>212</v>
       </c>
       <c r="P160" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q160">
         <v>11</v>
@@ -34978,7 +34987,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -35059,7 +35068,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>2.08</v>
@@ -35184,7 +35193,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q162">
         <v>4.5</v>
@@ -35596,7 +35605,7 @@
         <v>215</v>
       </c>
       <c r="P164" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -36008,7 +36017,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -36420,7 +36429,7 @@
         <v>218</v>
       </c>
       <c r="P168" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -37862,7 +37871,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q175">
         <v>2.25</v>
@@ -38149,7 +38158,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR176">
         <v>1.26</v>
@@ -38274,7 +38283,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -38480,7 +38489,7 @@
         <v>223</v>
       </c>
       <c r="P178" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38686,7 +38695,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q179">
         <v>4.33</v>
@@ -38767,7 +38776,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ179">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR179">
         <v>1.17</v>
@@ -38892,7 +38901,7 @@
         <v>225</v>
       </c>
       <c r="P180" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q180">
         <v>1.95</v>
@@ -39304,7 +39313,7 @@
         <v>227</v>
       </c>
       <c r="P182" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39510,7 +39519,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -39716,7 +39725,7 @@
         <v>228</v>
       </c>
       <c r="P184" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39794,7 +39803,7 @@
         <v>1.56</v>
       </c>
       <c r="AP184">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ184">
         <v>1.56</v>
@@ -39922,7 +39931,7 @@
         <v>229</v>
       </c>
       <c r="P185" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -40334,7 +40343,7 @@
         <v>223</v>
       </c>
       <c r="P187" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40540,7 +40549,7 @@
         <v>231</v>
       </c>
       <c r="P188" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q188">
         <v>2.88</v>
@@ -40618,7 +40627,7 @@
         <v>2</v>
       </c>
       <c r="AP188">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188">
         <v>1.33</v>
@@ -40746,7 +40755,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40952,7 +40961,7 @@
         <v>232</v>
       </c>
       <c r="P190" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -41033,7 +41042,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ190">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -41364,7 +41373,7 @@
         <v>234</v>
       </c>
       <c r="P192" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q192">
         <v>1.83</v>
@@ -41570,7 +41579,7 @@
         <v>235</v>
       </c>
       <c r="P193" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q193">
         <v>3.1</v>
@@ -41982,7 +41991,7 @@
         <v>237</v>
       </c>
       <c r="P195" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -42600,7 +42609,7 @@
         <v>240</v>
       </c>
       <c r="P198" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q198">
         <v>1.91</v>
@@ -42681,7 +42690,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
         <v>2.18</v>
@@ -43424,7 +43433,7 @@
         <v>242</v>
       </c>
       <c r="P202" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -43836,7 +43845,7 @@
         <v>243</v>
       </c>
       <c r="P204" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43914,7 +43923,7 @@
         <v>1.8</v>
       </c>
       <c r="AP204">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ204">
         <v>1.33</v>
@@ -44248,7 +44257,7 @@
         <v>245</v>
       </c>
       <c r="P206" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q206">
         <v>2.5</v>
@@ -44454,7 +44463,7 @@
         <v>246</v>
       </c>
       <c r="P207" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44660,7 +44669,7 @@
         <v>90</v>
       </c>
       <c r="P208" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44944,7 +44953,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -45072,7 +45081,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q210">
         <v>6.5</v>
@@ -45690,7 +45699,7 @@
         <v>249</v>
       </c>
       <c r="P213" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45896,7 +45905,7 @@
         <v>250</v>
       </c>
       <c r="P214" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q214">
         <v>2.5</v>
@@ -45977,7 +45986,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
         <v>1.63</v>
@@ -46102,7 +46111,7 @@
         <v>251</v>
       </c>
       <c r="P215" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q215">
         <v>1.4</v>
@@ -46308,7 +46317,7 @@
         <v>252</v>
       </c>
       <c r="P216" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q216">
         <v>2.1</v>
@@ -46595,7 +46604,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ217">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR217">
         <v>2.28</v>
@@ -46720,7 +46729,7 @@
         <v>99</v>
       </c>
       <c r="P218" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q218">
         <v>3</v>
@@ -46926,7 +46935,7 @@
         <v>254</v>
       </c>
       <c r="P219" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -47132,7 +47141,7 @@
         <v>255</v>
       </c>
       <c r="P220" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47416,7 +47425,7 @@
         <v>1.09</v>
       </c>
       <c r="AP221">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ221">
         <v>1.11</v>
@@ -47544,7 +47553,7 @@
         <v>257</v>
       </c>
       <c r="P222" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q222">
         <v>3.5</v>
@@ -47750,7 +47759,7 @@
         <v>258</v>
       </c>
       <c r="P223" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q223">
         <v>1.8</v>
@@ -47956,7 +47965,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -48368,7 +48377,7 @@
         <v>260</v>
       </c>
       <c r="P226" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q226">
         <v>2.2</v>
@@ -48652,7 +48661,7 @@
         <v>1.55</v>
       </c>
       <c r="AP227">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ227">
         <v>1.28</v>
@@ -48780,7 +48789,7 @@
         <v>262</v>
       </c>
       <c r="P228" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48986,7 +48995,7 @@
         <v>263</v>
       </c>
       <c r="P229" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49398,7 +49407,7 @@
         <v>265</v>
       </c>
       <c r="P231" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q231">
         <v>2.3</v>
@@ -49604,7 +49613,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -50428,7 +50437,7 @@
         <v>269</v>
       </c>
       <c r="P236" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50509,7 +50518,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ236">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR236">
         <v>1.23</v>
@@ -50634,7 +50643,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50840,7 +50849,7 @@
         <v>270</v>
       </c>
       <c r="P238" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -51046,7 +51055,7 @@
         <v>271</v>
       </c>
       <c r="P239" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -51127,7 +51136,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ239">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR239">
         <v>1.32</v>
@@ -51252,7 +51261,7 @@
         <v>272</v>
       </c>
       <c r="P240" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q240">
         <v>4.75</v>
@@ -51458,7 +51467,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51870,7 +51879,7 @@
         <v>274</v>
       </c>
       <c r="P243" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q243">
         <v>2.3</v>
@@ -52076,7 +52085,7 @@
         <v>275</v>
       </c>
       <c r="P244" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52282,7 +52291,7 @@
         <v>276</v>
       </c>
       <c r="P245" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q245">
         <v>2.05</v>
@@ -52569,7 +52578,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ246">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR246">
         <v>1.64</v>
@@ -52694,7 +52703,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q247">
         <v>4.75</v>
@@ -52900,7 +52909,7 @@
         <v>278</v>
       </c>
       <c r="P248" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q248">
         <v>4.33</v>
@@ -53518,7 +53527,7 @@
         <v>279</v>
       </c>
       <c r="P251" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q251">
         <v>1.57</v>
@@ -53724,7 +53733,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q252">
         <v>2.05</v>
@@ -53802,7 +53811,7 @@
         <v>0.58</v>
       </c>
       <c r="AP252">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ252">
         <v>0.83</v>
@@ -54008,7 +54017,7 @@
         <v>1.42</v>
       </c>
       <c r="AP253">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ253">
         <v>1.11</v>
@@ -54342,7 +54351,7 @@
         <v>282</v>
       </c>
       <c r="P255" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q255">
         <v>2.05</v>
@@ -54548,7 +54557,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -54835,7 +54844,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ257">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR257">
         <v>1.99</v>
@@ -55166,7 +55175,7 @@
         <v>284</v>
       </c>
       <c r="P259" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55784,7 +55793,7 @@
         <v>286</v>
       </c>
       <c r="P262" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q262">
         <v>3.5</v>
@@ -55865,7 +55874,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ262">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR262">
         <v>1.45</v>
@@ -56196,7 +56205,7 @@
         <v>288</v>
       </c>
       <c r="P264" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56608,7 +56617,7 @@
         <v>290</v>
       </c>
       <c r="P266" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q266">
         <v>4.33</v>
@@ -56814,7 +56823,7 @@
         <v>90</v>
       </c>
       <c r="P267" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -57020,7 +57029,7 @@
         <v>291</v>
       </c>
       <c r="P268" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q268">
         <v>1.67</v>
@@ -57226,7 +57235,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -57510,7 +57519,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ270">
         <v>1.11</v>
@@ -57638,7 +57647,7 @@
         <v>293</v>
       </c>
       <c r="P271" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57844,7 +57853,7 @@
         <v>205</v>
       </c>
       <c r="P272" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q272">
         <v>2.3</v>
@@ -58050,7 +58059,7 @@
         <v>294</v>
       </c>
       <c r="P273" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q273">
         <v>1.8</v>
@@ -58462,7 +58471,7 @@
         <v>90</v>
       </c>
       <c r="P275" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q275">
         <v>2.75</v>
@@ -58746,7 +58755,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP276">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ276">
         <v>0.72</v>
@@ -58874,7 +58883,7 @@
         <v>295</v>
       </c>
       <c r="P277" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59286,7 +59295,7 @@
         <v>297</v>
       </c>
       <c r="P279" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q279">
         <v>2.4</v>
@@ -59367,7 +59376,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ279">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR279">
         <v>1.56</v>
@@ -59492,7 +59501,7 @@
         <v>298</v>
       </c>
       <c r="P280" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q280">
         <v>2.05</v>
@@ -60522,7 +60531,7 @@
         <v>301</v>
       </c>
       <c r="P285" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q285">
         <v>2.38</v>
@@ -60728,7 +60737,7 @@
         <v>302</v>
       </c>
       <c r="P286" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q286">
         <v>4.75</v>
@@ -61140,7 +61149,7 @@
         <v>304</v>
       </c>
       <c r="P288" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q288">
         <v>1.73</v>
@@ -61346,7 +61355,7 @@
         <v>305</v>
       </c>
       <c r="P289" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q289">
         <v>1.57</v>
@@ -61964,7 +61973,7 @@
         <v>307</v>
       </c>
       <c r="P292" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q292">
         <v>3.4</v>
@@ -62170,7 +62179,7 @@
         <v>308</v>
       </c>
       <c r="P293" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q293">
         <v>1.8</v>
@@ -62788,7 +62797,7 @@
         <v>141</v>
       </c>
       <c r="P296" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q296">
         <v>2.4</v>
@@ -62994,7 +63003,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -64024,7 +64033,7 @@
         <v>313</v>
       </c>
       <c r="P302" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q302">
         <v>1.67</v>
@@ -64230,7 +64239,7 @@
         <v>314</v>
       </c>
       <c r="P303" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q303">
         <v>1.36</v>
@@ -64436,7 +64445,7 @@
         <v>315</v>
       </c>
       <c r="P304" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q304">
         <v>2.5</v>
@@ -64642,7 +64651,7 @@
         <v>316</v>
       </c>
       <c r="P305" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q305">
         <v>7.5</v>
@@ -64848,7 +64857,7 @@
         <v>317</v>
       </c>
       <c r="P306" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q306">
         <v>2.2</v>
@@ -65341,7 +65350,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ308">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR308">
         <v>1.53</v>
@@ -65672,7 +65681,7 @@
         <v>319</v>
       </c>
       <c r="P310" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q310">
         <v>3</v>
@@ -65878,7 +65887,7 @@
         <v>90</v>
       </c>
       <c r="P311" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q311">
         <v>4.75</v>
@@ -65956,7 +65965,7 @@
         <v>2</v>
       </c>
       <c r="AP311">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ311">
         <v>2.21</v>
@@ -66084,7 +66093,7 @@
         <v>320</v>
       </c>
       <c r="P312" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66162,7 +66171,7 @@
         <v>2</v>
       </c>
       <c r="AP312">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ312">
         <v>1.79</v>
@@ -66290,7 +66299,7 @@
         <v>321</v>
       </c>
       <c r="P313" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q313">
         <v>6</v>
@@ -66371,7 +66380,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ313">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR313">
         <v>1.1</v>
@@ -67526,7 +67535,7 @@
         <v>326</v>
       </c>
       <c r="P319" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q319">
         <v>2.88</v>
@@ -67732,7 +67741,7 @@
         <v>327</v>
       </c>
       <c r="P320" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q320">
         <v>2.88</v>
@@ -68144,7 +68153,7 @@
         <v>90</v>
       </c>
       <c r="P322" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68350,7 +68359,7 @@
         <v>90</v>
       </c>
       <c r="P323" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q323">
         <v>1.73</v>
@@ -68762,7 +68771,7 @@
         <v>265</v>
       </c>
       <c r="P325" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68968,7 +68977,7 @@
         <v>113</v>
       </c>
       <c r="P326" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q326">
         <v>3.5</v>
@@ -69174,7 +69183,7 @@
         <v>90</v>
       </c>
       <c r="P327" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -69792,7 +69801,7 @@
         <v>331</v>
       </c>
       <c r="P330" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q330">
         <v>2.75</v>
@@ -69998,7 +70007,7 @@
         <v>212</v>
       </c>
       <c r="P331" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -70285,7 +70294,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ332">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR332">
         <v>1.92</v>
@@ -70616,7 +70625,7 @@
         <v>333</v>
       </c>
       <c r="P334" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q334">
         <v>1.8</v>
@@ -70694,7 +70703,7 @@
         <v>0.38</v>
       </c>
       <c r="AP334">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ334">
         <v>0.32</v>
@@ -71109,7 +71118,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ336">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR336">
         <v>1.38</v>
@@ -71234,7 +71243,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q337">
         <v>5.5</v>
@@ -71312,7 +71321,7 @@
         <v>2.13</v>
       </c>
       <c r="AP337">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ337">
         <v>2.32</v>
@@ -71440,7 +71449,7 @@
         <v>336</v>
       </c>
       <c r="P338" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -71930,7 +71939,7 @@
         <v>0.76</v>
       </c>
       <c r="AP340">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ340">
         <v>0.74</v>
@@ -72676,7 +72685,7 @@
         <v>340</v>
       </c>
       <c r="P344" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q344">
         <v>2.63</v>
@@ -72757,7 +72766,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ344">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR344">
         <v>1.57</v>
@@ -73088,7 +73097,7 @@
         <v>342</v>
       </c>
       <c r="P346" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q346">
         <v>3.75</v>
@@ -73294,7 +73303,7 @@
         <v>90</v>
       </c>
       <c r="P347" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q347">
         <v>7</v>
@@ -73706,7 +73715,7 @@
         <v>102</v>
       </c>
       <c r="P349" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q349">
         <v>3.1</v>
@@ -74118,7 +74127,7 @@
         <v>154</v>
       </c>
       <c r="P351" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74530,7 +74539,7 @@
         <v>148</v>
       </c>
       <c r="P353" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q353">
         <v>3.6</v>
@@ -74611,7 +74620,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ353">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR353">
         <v>1.36</v>
@@ -75226,7 +75235,7 @@
         <v>1.65</v>
       </c>
       <c r="AP356">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ356">
         <v>1.56</v>
@@ -75354,7 +75363,7 @@
         <v>348</v>
       </c>
       <c r="P357" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q357">
         <v>1.91</v>
@@ -75766,7 +75775,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q359">
         <v>8</v>
@@ -76178,7 +76187,7 @@
         <v>351</v>
       </c>
       <c r="P361" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q361">
         <v>3.25</v>
@@ -76384,7 +76393,7 @@
         <v>247</v>
       </c>
       <c r="P362" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q362">
         <v>2.5</v>
@@ -77208,7 +77217,7 @@
         <v>354</v>
       </c>
       <c r="P366" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q366">
         <v>3.75</v>
@@ -77289,7 +77298,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ366">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR366">
         <v>1.33</v>
@@ -77414,7 +77423,7 @@
         <v>90</v>
       </c>
       <c r="P367" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -77492,7 +77501,7 @@
         <v>2.17</v>
       </c>
       <c r="AP367">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ367">
         <v>2.21</v>
@@ -77620,7 +77629,7 @@
         <v>355</v>
       </c>
       <c r="P368" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q368">
         <v>4</v>
@@ -77826,7 +77835,7 @@
         <v>90</v>
       </c>
       <c r="P369" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -77983,6 +77992,418 @@
       </c>
       <c r="BP369">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>6689284</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45427.65625</v>
+      </c>
+      <c r="F370">
+        <v>34</v>
+      </c>
+      <c r="G370" t="s">
+        <v>73</v>
+      </c>
+      <c r="H370" t="s">
+        <v>78</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>2</v>
+      </c>
+      <c r="N370">
+        <v>3</v>
+      </c>
+      <c r="O370" t="s">
+        <v>182</v>
+      </c>
+      <c r="P370" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q370">
+        <v>3.25</v>
+      </c>
+      <c r="R370">
+        <v>2.6</v>
+      </c>
+      <c r="S370">
+        <v>2.6</v>
+      </c>
+      <c r="T370">
+        <v>1.22</v>
+      </c>
+      <c r="U370">
+        <v>4</v>
+      </c>
+      <c r="V370">
+        <v>2</v>
+      </c>
+      <c r="W370">
+        <v>1.73</v>
+      </c>
+      <c r="X370">
+        <v>4.33</v>
+      </c>
+      <c r="Y370">
+        <v>1.2</v>
+      </c>
+      <c r="Z370">
+        <v>2.67</v>
+      </c>
+      <c r="AA370">
+        <v>3.75</v>
+      </c>
+      <c r="AB370">
+        <v>2.18</v>
+      </c>
+      <c r="AC370">
+        <v>1.03</v>
+      </c>
+      <c r="AD370">
+        <v>26</v>
+      </c>
+      <c r="AE370">
+        <v>1.13</v>
+      </c>
+      <c r="AF370">
+        <v>6.4</v>
+      </c>
+      <c r="AG370">
+        <v>1.4</v>
+      </c>
+      <c r="AH370">
+        <v>2.9</v>
+      </c>
+      <c r="AI370">
+        <v>1.36</v>
+      </c>
+      <c r="AJ370">
+        <v>3</v>
+      </c>
+      <c r="AK370">
+        <v>1.8</v>
+      </c>
+      <c r="AL370">
+        <v>1.24</v>
+      </c>
+      <c r="AM370">
+        <v>1.37</v>
+      </c>
+      <c r="AN370">
+        <v>1.76</v>
+      </c>
+      <c r="AO370">
+        <v>1.28</v>
+      </c>
+      <c r="AP370">
+        <v>1.67</v>
+      </c>
+      <c r="AQ370">
+        <v>1.37</v>
+      </c>
+      <c r="AR370">
+        <v>1.72</v>
+      </c>
+      <c r="AS370">
+        <v>1.42</v>
+      </c>
+      <c r="AT370">
+        <v>3.14</v>
+      </c>
+      <c r="AU370">
+        <v>3</v>
+      </c>
+      <c r="AV370">
+        <v>7</v>
+      </c>
+      <c r="AW370">
+        <v>7</v>
+      </c>
+      <c r="AX370">
+        <v>3</v>
+      </c>
+      <c r="AY370">
+        <v>10</v>
+      </c>
+      <c r="AZ370">
+        <v>10</v>
+      </c>
+      <c r="BA370">
+        <v>4</v>
+      </c>
+      <c r="BB370">
+        <v>6</v>
+      </c>
+      <c r="BC370">
+        <v>10</v>
+      </c>
+      <c r="BD370">
+        <v>2.07</v>
+      </c>
+      <c r="BE370">
+        <v>6.5</v>
+      </c>
+      <c r="BF370">
+        <v>1.92</v>
+      </c>
+      <c r="BG370">
+        <v>1.24</v>
+      </c>
+      <c r="BH370">
+        <v>3.55</v>
+      </c>
+      <c r="BI370">
+        <v>1.41</v>
+      </c>
+      <c r="BJ370">
+        <v>2.63</v>
+      </c>
+      <c r="BK370">
+        <v>1.68</v>
+      </c>
+      <c r="BL370">
+        <v>2.02</v>
+      </c>
+      <c r="BM370">
+        <v>2.07</v>
+      </c>
+      <c r="BN370">
+        <v>1.66</v>
+      </c>
+      <c r="BO370">
+        <v>2.55</v>
+      </c>
+      <c r="BP370">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>6689289</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45427.66666666666</v>
+      </c>
+      <c r="F371">
+        <v>34</v>
+      </c>
+      <c r="G371" t="s">
+        <v>79</v>
+      </c>
+      <c r="H371" t="s">
+        <v>76</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>3</v>
+      </c>
+      <c r="M371">
+        <v>2</v>
+      </c>
+      <c r="N371">
+        <v>5</v>
+      </c>
+      <c r="O371" t="s">
+        <v>356</v>
+      </c>
+      <c r="P371" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q371">
+        <v>2.88</v>
+      </c>
+      <c r="R371">
+        <v>2.63</v>
+      </c>
+      <c r="S371">
+        <v>2.88</v>
+      </c>
+      <c r="T371">
+        <v>1.2</v>
+      </c>
+      <c r="U371">
+        <v>4.33</v>
+      </c>
+      <c r="V371">
+        <v>1.91</v>
+      </c>
+      <c r="W371">
+        <v>1.8</v>
+      </c>
+      <c r="X371">
+        <v>4</v>
+      </c>
+      <c r="Y371">
+        <v>1.22</v>
+      </c>
+      <c r="Z371">
+        <v>2.43</v>
+      </c>
+      <c r="AA371">
+        <v>3.95</v>
+      </c>
+      <c r="AB371">
+        <v>2.41</v>
+      </c>
+      <c r="AC371">
+        <v>1.02</v>
+      </c>
+      <c r="AD371">
+        <v>34</v>
+      </c>
+      <c r="AE371">
+        <v>1.07</v>
+      </c>
+      <c r="AF371">
+        <v>7</v>
+      </c>
+      <c r="AG371">
+        <v>1.28</v>
+      </c>
+      <c r="AH371">
+        <v>3.26</v>
+      </c>
+      <c r="AI371">
+        <v>1.3</v>
+      </c>
+      <c r="AJ371">
+        <v>3.4</v>
+      </c>
+      <c r="AK371">
+        <v>1.59</v>
+      </c>
+      <c r="AL371">
+        <v>1.24</v>
+      </c>
+      <c r="AM371">
+        <v>1.57</v>
+      </c>
+      <c r="AN371">
+        <v>1.67</v>
+      </c>
+      <c r="AO371">
+        <v>1</v>
+      </c>
+      <c r="AP371">
+        <v>1.74</v>
+      </c>
+      <c r="AQ371">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR371">
+        <v>1.75</v>
+      </c>
+      <c r="AS371">
+        <v>1.28</v>
+      </c>
+      <c r="AT371">
+        <v>3.03</v>
+      </c>
+      <c r="AU371">
+        <v>9</v>
+      </c>
+      <c r="AV371">
+        <v>9</v>
+      </c>
+      <c r="AW371">
+        <v>5</v>
+      </c>
+      <c r="AX371">
+        <v>8</v>
+      </c>
+      <c r="AY371">
+        <v>14</v>
+      </c>
+      <c r="AZ371">
+        <v>17</v>
+      </c>
+      <c r="BA371">
+        <v>9</v>
+      </c>
+      <c r="BB371">
+        <v>9</v>
+      </c>
+      <c r="BC371">
+        <v>18</v>
+      </c>
+      <c r="BD371">
+        <v>1.95</v>
+      </c>
+      <c r="BE371">
+        <v>6.75</v>
+      </c>
+      <c r="BF371">
+        <v>2</v>
+      </c>
+      <c r="BG371">
+        <v>1.13</v>
+      </c>
+      <c r="BH371">
+        <v>4.8</v>
+      </c>
+      <c r="BI371">
+        <v>1.26</v>
+      </c>
+      <c r="BJ371">
+        <v>3.4</v>
+      </c>
+      <c r="BK371">
+        <v>1.46</v>
+      </c>
+      <c r="BL371">
+        <v>2.5</v>
+      </c>
+      <c r="BM371">
+        <v>1.72</v>
+      </c>
+      <c r="BN371">
+        <v>1.98</v>
+      </c>
+      <c r="BO371">
+        <v>2.08</v>
+      </c>
+      <c r="BP371">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -1651,7 +1651,7 @@
     <t>['2', '14']</t>
   </si>
   <si>
-    <t>['43', '45+3', '49', '68']</t>
+    <t>['43', '45+3', '49', '69']</t>
   </si>
   <si>
     <t>['14', '59', '65']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20232024.xlsx
@@ -78812,13 +78812,13 @@
         <v>13</v>
       </c>
       <c r="BA373">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB373">
         <v>0</v>
       </c>
       <c r="BC373">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD373">
         <v>2.25</v>
